--- a/Intern Roster/Intern Roster/Run_Ouput_v9.xlsx
+++ b/Intern Roster/Intern Roster/Run_Ouput_v9.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\SLE352 CSP\Repo\Rostering\Intern Roster\Intern Roster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566157CB-C4E6-4451-AB82-CFCDE5140177}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2648454-3663-48A1-A68D-2F38EF96A3F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D80137CF-C982-4E13-A893-2A148A79641A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{D80137CF-C982-4E13-A893-2A148A79641A}"/>
+    <workbookView xWindow="-18380" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="1" xr2:uid="{DCF100C1-BD45-45ED-8A95-AB38DAB4DA05}"/>
   </bookViews>
   <sheets>
     <sheet name="v9.1" sheetId="1" r:id="rId1"/>
     <sheet name="v9.1 roster" sheetId="2" r:id="rId2"/>
     <sheet name="V9.1 PRINT" sheetId="3" r:id="rId3"/>
+    <sheet name="v9.3" sheetId="4" r:id="rId4"/>
+    <sheet name="v9.3 roster" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="41">
   <si>
     <t>Intern  (size 11)</t>
   </si>
@@ -112,6 +115,45 @@
   </si>
   <si>
     <t>Intern 11</t>
+  </si>
+  <si>
+    <t>Imp. Dates</t>
+  </si>
+  <si>
+    <t>Xmas</t>
+  </si>
+  <si>
+    <t>New Year</t>
+  </si>
+  <si>
+    <t>Aus Day</t>
+  </si>
+  <si>
+    <t>Sem 1</t>
+  </si>
+  <si>
+    <t>Lab. Day</t>
+  </si>
+  <si>
+    <t>Good Fri</t>
+  </si>
+  <si>
+    <t>East Mon</t>
+  </si>
+  <si>
+    <t>Sem 2</t>
+  </si>
+  <si>
+    <t>Q. Bday</t>
+  </si>
+  <si>
+    <t>Sem 3</t>
+  </si>
+  <si>
+    <t>Sem 4</t>
+  </si>
+  <si>
+    <t>Melb Cup</t>
   </si>
 </sst>
 </file>
@@ -547,6 +589,7 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -7124,8 +7167,11 @@
     <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="1">
+    <sheetView topLeftCell="AJ1" workbookViewId="1">
       <selection activeCell="AR3" sqref="AR3:BC13"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="2">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9354,6 +9400,7 @@
       <selection activeCell="Q53" sqref="Q53"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -12149,4 +12196,8861 @@
     <oddFooter>&amp;RDate Generated: 04/06/2019</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6433EFC-BFDE-49FC-8776-42E4AAC0A2D0}">
+  <dimension ref="A1:C595"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+    <sheetView topLeftCell="A580" workbookViewId="2">
+      <selection activeCell="B546" sqref="B546:B595"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>15</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>17</v>
+      </c>
+      <c r="C52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>17</v>
+      </c>
+      <c r="C53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>17</v>
+      </c>
+      <c r="C54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>17</v>
+      </c>
+      <c r="C55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <v>13</v>
+      </c>
+      <c r="C63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68">
+        <v>8</v>
+      </c>
+      <c r="C68">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73">
+        <v>7</v>
+      </c>
+      <c r="C73">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74">
+        <v>7</v>
+      </c>
+      <c r="C74">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75">
+        <v>7</v>
+      </c>
+      <c r="C75">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76">
+        <v>14</v>
+      </c>
+      <c r="C76">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2</v>
+      </c>
+      <c r="B80">
+        <v>12</v>
+      </c>
+      <c r="C80">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2</v>
+      </c>
+      <c r="B81">
+        <v>12</v>
+      </c>
+      <c r="C81">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83">
+        <v>11</v>
+      </c>
+      <c r="C83">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <v>11</v>
+      </c>
+      <c r="C84">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2</v>
+      </c>
+      <c r="B85">
+        <v>11</v>
+      </c>
+      <c r="C85">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86">
+        <v>11</v>
+      </c>
+      <c r="C86">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="B87">
+        <v>9</v>
+      </c>
+      <c r="C87">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2</v>
+      </c>
+      <c r="B88">
+        <v>9</v>
+      </c>
+      <c r="C88">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2</v>
+      </c>
+      <c r="B89">
+        <v>9</v>
+      </c>
+      <c r="C89">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90">
+        <v>9</v>
+      </c>
+      <c r="C90">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="B91">
+        <v>4</v>
+      </c>
+      <c r="C91">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2</v>
+      </c>
+      <c r="B92">
+        <v>4</v>
+      </c>
+      <c r="C92">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2</v>
+      </c>
+      <c r="B93">
+        <v>15</v>
+      </c>
+      <c r="C93">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2</v>
+      </c>
+      <c r="B106">
+        <v>17</v>
+      </c>
+      <c r="C106">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2</v>
+      </c>
+      <c r="B107">
+        <v>17</v>
+      </c>
+      <c r="C107">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2</v>
+      </c>
+      <c r="B108">
+        <v>17</v>
+      </c>
+      <c r="C108">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2</v>
+      </c>
+      <c r="B109">
+        <v>17</v>
+      </c>
+      <c r="C109">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>3</v>
+      </c>
+      <c r="B110">
+        <v>9</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>3</v>
+      </c>
+      <c r="B111">
+        <v>5</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>3</v>
+      </c>
+      <c r="B112">
+        <v>10</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>3</v>
+      </c>
+      <c r="B113">
+        <v>10</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>3</v>
+      </c>
+      <c r="B114">
+        <v>4</v>
+      </c>
+      <c r="C114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>3</v>
+      </c>
+      <c r="B115">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>3</v>
+      </c>
+      <c r="B116">
+        <v>13</v>
+      </c>
+      <c r="C116">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>3</v>
+      </c>
+      <c r="B117">
+        <v>12</v>
+      </c>
+      <c r="C117">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>3</v>
+      </c>
+      <c r="B118">
+        <v>10</v>
+      </c>
+      <c r="C118">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>3</v>
+      </c>
+      <c r="B119">
+        <v>9</v>
+      </c>
+      <c r="C119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>3</v>
+      </c>
+      <c r="B120">
+        <v>9</v>
+      </c>
+      <c r="C120">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>3</v>
+      </c>
+      <c r="B121">
+        <v>9</v>
+      </c>
+      <c r="C121">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>3</v>
+      </c>
+      <c r="B122">
+        <v>9</v>
+      </c>
+      <c r="C122">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>3</v>
+      </c>
+      <c r="B123">
+        <v>12</v>
+      </c>
+      <c r="C123">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>3</v>
+      </c>
+      <c r="B124">
+        <v>10</v>
+      </c>
+      <c r="C124">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>3</v>
+      </c>
+      <c r="B125">
+        <v>5</v>
+      </c>
+      <c r="C125">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>3</v>
+      </c>
+      <c r="B126">
+        <v>5</v>
+      </c>
+      <c r="C126">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>3</v>
+      </c>
+      <c r="B127">
+        <v>8</v>
+      </c>
+      <c r="C127">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>3</v>
+      </c>
+      <c r="B128">
+        <v>8</v>
+      </c>
+      <c r="C128">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>3</v>
+      </c>
+      <c r="B129">
+        <v>8</v>
+      </c>
+      <c r="C129">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>3</v>
+      </c>
+      <c r="B130">
+        <v>14</v>
+      </c>
+      <c r="C130">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>3</v>
+      </c>
+      <c r="B131">
+        <v>7</v>
+      </c>
+      <c r="C131">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>3</v>
+      </c>
+      <c r="B132">
+        <v>7</v>
+      </c>
+      <c r="C132">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>3</v>
+      </c>
+      <c r="B133">
+        <v>7</v>
+      </c>
+      <c r="C133">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>3</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>3</v>
+      </c>
+      <c r="B135">
+        <v>3</v>
+      </c>
+      <c r="C135">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>3</v>
+      </c>
+      <c r="B136">
+        <v>3</v>
+      </c>
+      <c r="C136">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>3</v>
+      </c>
+      <c r="B137">
+        <v>4</v>
+      </c>
+      <c r="C137">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>3</v>
+      </c>
+      <c r="B138">
+        <v>4</v>
+      </c>
+      <c r="C138">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>3</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>3</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>3</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>3</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>3</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>3</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>3</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>3</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>3</v>
+      </c>
+      <c r="B147">
+        <v>15</v>
+      </c>
+      <c r="C147">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>3</v>
+      </c>
+      <c r="B148">
+        <v>6</v>
+      </c>
+      <c r="C148">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>3</v>
+      </c>
+      <c r="B149">
+        <v>6</v>
+      </c>
+      <c r="C149">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>3</v>
+      </c>
+      <c r="B150">
+        <v>6</v>
+      </c>
+      <c r="C150">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>3</v>
+      </c>
+      <c r="B151">
+        <v>10</v>
+      </c>
+      <c r="C151">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>3</v>
+      </c>
+      <c r="B152">
+        <v>2</v>
+      </c>
+      <c r="C152">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>3</v>
+      </c>
+      <c r="B153">
+        <v>2</v>
+      </c>
+      <c r="C153">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>3</v>
+      </c>
+      <c r="B154">
+        <v>2</v>
+      </c>
+      <c r="C154">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>3</v>
+      </c>
+      <c r="B155">
+        <v>2</v>
+      </c>
+      <c r="C155">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>3</v>
+      </c>
+      <c r="B156">
+        <v>11</v>
+      </c>
+      <c r="C156">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>3</v>
+      </c>
+      <c r="B157">
+        <v>11</v>
+      </c>
+      <c r="C157">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>3</v>
+      </c>
+      <c r="B158">
+        <v>11</v>
+      </c>
+      <c r="C158">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>3</v>
+      </c>
+      <c r="B159">
+        <v>11</v>
+      </c>
+      <c r="C159">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>3</v>
+      </c>
+      <c r="B160">
+        <v>17</v>
+      </c>
+      <c r="C160">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>3</v>
+      </c>
+      <c r="B161">
+        <v>17</v>
+      </c>
+      <c r="C161">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>3</v>
+      </c>
+      <c r="B162">
+        <v>17</v>
+      </c>
+      <c r="C162">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>3</v>
+      </c>
+      <c r="B163">
+        <v>17</v>
+      </c>
+      <c r="C163">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>4</v>
+      </c>
+      <c r="B164">
+        <v>10</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>4</v>
+      </c>
+      <c r="B165">
+        <v>10</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>4</v>
+      </c>
+      <c r="B166">
+        <v>9</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>4</v>
+      </c>
+      <c r="B167">
+        <v>5</v>
+      </c>
+      <c r="C167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>4</v>
+      </c>
+      <c r="B168">
+        <v>5</v>
+      </c>
+      <c r="C168">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>4</v>
+      </c>
+      <c r="B169">
+        <v>6</v>
+      </c>
+      <c r="C169">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>4</v>
+      </c>
+      <c r="B170">
+        <v>6</v>
+      </c>
+      <c r="C170">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>4</v>
+      </c>
+      <c r="B171">
+        <v>6</v>
+      </c>
+      <c r="C171">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>4</v>
+      </c>
+      <c r="B172">
+        <v>7</v>
+      </c>
+      <c r="C172">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>4</v>
+      </c>
+      <c r="B173">
+        <v>7</v>
+      </c>
+      <c r="C173">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>4</v>
+      </c>
+      <c r="B174">
+        <v>7</v>
+      </c>
+      <c r="C174">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>4</v>
+      </c>
+      <c r="B175">
+        <v>13</v>
+      </c>
+      <c r="C175">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>4</v>
+      </c>
+      <c r="B176">
+        <v>12</v>
+      </c>
+      <c r="C176">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>4</v>
+      </c>
+      <c r="B177">
+        <v>10</v>
+      </c>
+      <c r="C177">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>4</v>
+      </c>
+      <c r="B178">
+        <v>3</v>
+      </c>
+      <c r="C178">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>4</v>
+      </c>
+      <c r="B179">
+        <v>3</v>
+      </c>
+      <c r="C179">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>4</v>
+      </c>
+      <c r="B180">
+        <v>3</v>
+      </c>
+      <c r="C180">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>4</v>
+      </c>
+      <c r="B181">
+        <v>5</v>
+      </c>
+      <c r="C181">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>4</v>
+      </c>
+      <c r="B182">
+        <v>10</v>
+      </c>
+      <c r="C182">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>4</v>
+      </c>
+      <c r="B183">
+        <v>10</v>
+      </c>
+      <c r="C183">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>4</v>
+      </c>
+      <c r="B184">
+        <v>14</v>
+      </c>
+      <c r="C184">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>4</v>
+      </c>
+      <c r="B185">
+        <v>12</v>
+      </c>
+      <c r="C185">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>4</v>
+      </c>
+      <c r="B186">
+        <v>8</v>
+      </c>
+      <c r="C186">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>4</v>
+      </c>
+      <c r="B187">
+        <v>8</v>
+      </c>
+      <c r="C187">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>4</v>
+      </c>
+      <c r="B188">
+        <v>8</v>
+      </c>
+      <c r="C188">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>4</v>
+      </c>
+      <c r="B189">
+        <v>4</v>
+      </c>
+      <c r="C189">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>4</v>
+      </c>
+      <c r="B190">
+        <v>4</v>
+      </c>
+      <c r="C190">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>4</v>
+      </c>
+      <c r="B191">
+        <v>9</v>
+      </c>
+      <c r="C191">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>4</v>
+      </c>
+      <c r="B192">
+        <v>9</v>
+      </c>
+      <c r="C192">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>4</v>
+      </c>
+      <c r="B193">
+        <v>9</v>
+      </c>
+      <c r="C193">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>4</v>
+      </c>
+      <c r="B194">
+        <v>9</v>
+      </c>
+      <c r="C194">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>4</v>
+      </c>
+      <c r="B195">
+        <v>4</v>
+      </c>
+      <c r="C195">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>4</v>
+      </c>
+      <c r="B196">
+        <v>4</v>
+      </c>
+      <c r="C196">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>4</v>
+      </c>
+      <c r="B197">
+        <v>2</v>
+      </c>
+      <c r="C197">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>4</v>
+      </c>
+      <c r="B198">
+        <v>2</v>
+      </c>
+      <c r="C198">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>4</v>
+      </c>
+      <c r="B199">
+        <v>2</v>
+      </c>
+      <c r="C199">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>4</v>
+      </c>
+      <c r="B200">
+        <v>2</v>
+      </c>
+      <c r="C200">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>4</v>
+      </c>
+      <c r="B201">
+        <v>15</v>
+      </c>
+      <c r="C201">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>4</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>4</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>4</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>4</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+      <c r="C205">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>4</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>4</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>4</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>4</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>4</v>
+      </c>
+      <c r="B210">
+        <v>11</v>
+      </c>
+      <c r="C210">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>4</v>
+      </c>
+      <c r="B211">
+        <v>11</v>
+      </c>
+      <c r="C211">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>4</v>
+      </c>
+      <c r="B212">
+        <v>11</v>
+      </c>
+      <c r="C212">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>4</v>
+      </c>
+      <c r="B213">
+        <v>11</v>
+      </c>
+      <c r="C213">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>4</v>
+      </c>
+      <c r="B214">
+        <v>17</v>
+      </c>
+      <c r="C214">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>4</v>
+      </c>
+      <c r="B215">
+        <v>17</v>
+      </c>
+      <c r="C215">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>4</v>
+      </c>
+      <c r="B216">
+        <v>17</v>
+      </c>
+      <c r="C216">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>4</v>
+      </c>
+      <c r="B217">
+        <v>17</v>
+      </c>
+      <c r="C217">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>5</v>
+      </c>
+      <c r="B218">
+        <v>5</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>5</v>
+      </c>
+      <c r="B219">
+        <v>9</v>
+      </c>
+      <c r="C219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>5</v>
+      </c>
+      <c r="B220">
+        <v>10</v>
+      </c>
+      <c r="C220">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>5</v>
+      </c>
+      <c r="B221">
+        <v>10</v>
+      </c>
+      <c r="C221">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>5</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>5</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>5</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>5</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>5</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="C226">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>5</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>5</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>5</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>5</v>
+      </c>
+      <c r="B230">
+        <v>2</v>
+      </c>
+      <c r="C230">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>5</v>
+      </c>
+      <c r="B231">
+        <v>2</v>
+      </c>
+      <c r="C231">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>5</v>
+      </c>
+      <c r="B232">
+        <v>2</v>
+      </c>
+      <c r="C232">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>5</v>
+      </c>
+      <c r="B233">
+        <v>2</v>
+      </c>
+      <c r="C233">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>5</v>
+      </c>
+      <c r="B234">
+        <v>12</v>
+      </c>
+      <c r="C234">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>5</v>
+      </c>
+      <c r="B235">
+        <v>3</v>
+      </c>
+      <c r="C235">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>5</v>
+      </c>
+      <c r="B236">
+        <v>3</v>
+      </c>
+      <c r="C236">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>5</v>
+      </c>
+      <c r="B237">
+        <v>3</v>
+      </c>
+      <c r="C237">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>5</v>
+      </c>
+      <c r="B238">
+        <v>14</v>
+      </c>
+      <c r="C238">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>5</v>
+      </c>
+      <c r="B239">
+        <v>4</v>
+      </c>
+      <c r="C239">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>5</v>
+      </c>
+      <c r="B240">
+        <v>4</v>
+      </c>
+      <c r="C240">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>5</v>
+      </c>
+      <c r="B241">
+        <v>13</v>
+      </c>
+      <c r="C241">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>5</v>
+      </c>
+      <c r="B242">
+        <v>9</v>
+      </c>
+      <c r="C242">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>5</v>
+      </c>
+      <c r="B243">
+        <v>9</v>
+      </c>
+      <c r="C243">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>5</v>
+      </c>
+      <c r="B244">
+        <v>9</v>
+      </c>
+      <c r="C244">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>5</v>
+      </c>
+      <c r="B245">
+        <v>9</v>
+      </c>
+      <c r="C245">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>5</v>
+      </c>
+      <c r="B246">
+        <v>5</v>
+      </c>
+      <c r="C246">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>5</v>
+      </c>
+      <c r="B247">
+        <v>5</v>
+      </c>
+      <c r="C247">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>5</v>
+      </c>
+      <c r="B248">
+        <v>6</v>
+      </c>
+      <c r="C248">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>5</v>
+      </c>
+      <c r="B249">
+        <v>6</v>
+      </c>
+      <c r="C249">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>5</v>
+      </c>
+      <c r="B250">
+        <v>6</v>
+      </c>
+      <c r="C250">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>5</v>
+      </c>
+      <c r="B251">
+        <v>11</v>
+      </c>
+      <c r="C251">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>5</v>
+      </c>
+      <c r="B252">
+        <v>11</v>
+      </c>
+      <c r="C252">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>5</v>
+      </c>
+      <c r="B253">
+        <v>11</v>
+      </c>
+      <c r="C253">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>5</v>
+      </c>
+      <c r="B254">
+        <v>11</v>
+      </c>
+      <c r="C254">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>5</v>
+      </c>
+      <c r="B255">
+        <v>15</v>
+      </c>
+      <c r="C255">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>5</v>
+      </c>
+      <c r="B256">
+        <v>7</v>
+      </c>
+      <c r="C256">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>5</v>
+      </c>
+      <c r="B257">
+        <v>7</v>
+      </c>
+      <c r="C257">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>5</v>
+      </c>
+      <c r="B258">
+        <v>7</v>
+      </c>
+      <c r="C258">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>5</v>
+      </c>
+      <c r="B259">
+        <v>10</v>
+      </c>
+      <c r="C259">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>5</v>
+      </c>
+      <c r="B260">
+        <v>12</v>
+      </c>
+      <c r="C260">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>5</v>
+      </c>
+      <c r="B261">
+        <v>4</v>
+      </c>
+      <c r="C261">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>5</v>
+      </c>
+      <c r="B262">
+        <v>4</v>
+      </c>
+      <c r="C262">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>5</v>
+      </c>
+      <c r="B263">
+        <v>10</v>
+      </c>
+      <c r="C263">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>5</v>
+      </c>
+      <c r="B264">
+        <v>10</v>
+      </c>
+      <c r="C264">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>5</v>
+      </c>
+      <c r="B265">
+        <v>8</v>
+      </c>
+      <c r="C265">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>5</v>
+      </c>
+      <c r="B266">
+        <v>8</v>
+      </c>
+      <c r="C266">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>5</v>
+      </c>
+      <c r="B267">
+        <v>8</v>
+      </c>
+      <c r="C267">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>5</v>
+      </c>
+      <c r="B268">
+        <v>17</v>
+      </c>
+      <c r="C268">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>5</v>
+      </c>
+      <c r="B269">
+        <v>17</v>
+      </c>
+      <c r="C269">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>5</v>
+      </c>
+      <c r="B270">
+        <v>17</v>
+      </c>
+      <c r="C270">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>5</v>
+      </c>
+      <c r="B271">
+        <v>17</v>
+      </c>
+      <c r="C271">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>6</v>
+      </c>
+      <c r="B272">
+        <v>10</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>6</v>
+      </c>
+      <c r="B273">
+        <v>10</v>
+      </c>
+      <c r="C273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>6</v>
+      </c>
+      <c r="B274">
+        <v>9</v>
+      </c>
+      <c r="C274">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>6</v>
+      </c>
+      <c r="B275">
+        <v>5</v>
+      </c>
+      <c r="C275">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>6</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="C276">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>6</v>
+      </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
+      <c r="C277">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>6</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+      <c r="C278">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>6</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
+      <c r="C279">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>6</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+      <c r="C280">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>6</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+      <c r="C281">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>6</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+      <c r="C282">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>6</v>
+      </c>
+      <c r="B283">
+        <v>1</v>
+      </c>
+      <c r="C283">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>6</v>
+      </c>
+      <c r="B284">
+        <v>4</v>
+      </c>
+      <c r="C284">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>6</v>
+      </c>
+      <c r="B285">
+        <v>4</v>
+      </c>
+      <c r="C285">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>6</v>
+      </c>
+      <c r="B286">
+        <v>10</v>
+      </c>
+      <c r="C286">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>6</v>
+      </c>
+      <c r="B287">
+        <v>12</v>
+      </c>
+      <c r="C287">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>6</v>
+      </c>
+      <c r="B288">
+        <v>13</v>
+      </c>
+      <c r="C288">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>6</v>
+      </c>
+      <c r="B289">
+        <v>6</v>
+      </c>
+      <c r="C289">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>6</v>
+      </c>
+      <c r="B290">
+        <v>6</v>
+      </c>
+      <c r="C290">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>6</v>
+      </c>
+      <c r="B291">
+        <v>6</v>
+      </c>
+      <c r="C291">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>6</v>
+      </c>
+      <c r="B292">
+        <v>14</v>
+      </c>
+      <c r="C292">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>6</v>
+      </c>
+      <c r="B293">
+        <v>3</v>
+      </c>
+      <c r="C293">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>6</v>
+      </c>
+      <c r="B294">
+        <v>3</v>
+      </c>
+      <c r="C294">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>6</v>
+      </c>
+      <c r="B295">
+        <v>3</v>
+      </c>
+      <c r="C295">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>6</v>
+      </c>
+      <c r="B296">
+        <v>5</v>
+      </c>
+      <c r="C296">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>6</v>
+      </c>
+      <c r="B297">
+        <v>5</v>
+      </c>
+      <c r="C297">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>6</v>
+      </c>
+      <c r="B298">
+        <v>7</v>
+      </c>
+      <c r="C298">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>6</v>
+      </c>
+      <c r="B299">
+        <v>7</v>
+      </c>
+      <c r="C299">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>6</v>
+      </c>
+      <c r="B300">
+        <v>7</v>
+      </c>
+      <c r="C300">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>6</v>
+      </c>
+      <c r="B301">
+        <v>2</v>
+      </c>
+      <c r="C301">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>6</v>
+      </c>
+      <c r="B302">
+        <v>2</v>
+      </c>
+      <c r="C302">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>6</v>
+      </c>
+      <c r="B303">
+        <v>2</v>
+      </c>
+      <c r="C303">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>6</v>
+      </c>
+      <c r="B304">
+        <v>2</v>
+      </c>
+      <c r="C304">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>6</v>
+      </c>
+      <c r="B305">
+        <v>4</v>
+      </c>
+      <c r="C305">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>6</v>
+      </c>
+      <c r="B306">
+        <v>4</v>
+      </c>
+      <c r="C306">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>6</v>
+      </c>
+      <c r="B307">
+        <v>10</v>
+      </c>
+      <c r="C307">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>6</v>
+      </c>
+      <c r="B308">
+        <v>16</v>
+      </c>
+      <c r="C308">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>6</v>
+      </c>
+      <c r="B309">
+        <v>9</v>
+      </c>
+      <c r="C309">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>6</v>
+      </c>
+      <c r="B310">
+        <v>9</v>
+      </c>
+      <c r="C310">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>6</v>
+      </c>
+      <c r="B311">
+        <v>9</v>
+      </c>
+      <c r="C311">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>6</v>
+      </c>
+      <c r="B312">
+        <v>9</v>
+      </c>
+      <c r="C312">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>6</v>
+      </c>
+      <c r="B313">
+        <v>8</v>
+      </c>
+      <c r="C313">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>6</v>
+      </c>
+      <c r="B314">
+        <v>8</v>
+      </c>
+      <c r="C314">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>6</v>
+      </c>
+      <c r="B315">
+        <v>8</v>
+      </c>
+      <c r="C315">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>6</v>
+      </c>
+      <c r="B316">
+        <v>12</v>
+      </c>
+      <c r="C316">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>6</v>
+      </c>
+      <c r="B317">
+        <v>11</v>
+      </c>
+      <c r="C317">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>6</v>
+      </c>
+      <c r="B318">
+        <v>11</v>
+      </c>
+      <c r="C318">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>6</v>
+      </c>
+      <c r="B319">
+        <v>11</v>
+      </c>
+      <c r="C319">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>6</v>
+      </c>
+      <c r="B320">
+        <v>11</v>
+      </c>
+      <c r="C320">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>6</v>
+      </c>
+      <c r="B321">
+        <v>10</v>
+      </c>
+      <c r="C321">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>6</v>
+      </c>
+      <c r="B322">
+        <v>17</v>
+      </c>
+      <c r="C322">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>6</v>
+      </c>
+      <c r="B323">
+        <v>17</v>
+      </c>
+      <c r="C323">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>6</v>
+      </c>
+      <c r="B324">
+        <v>17</v>
+      </c>
+      <c r="C324">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>6</v>
+      </c>
+      <c r="B325">
+        <v>17</v>
+      </c>
+      <c r="C325">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>7</v>
+      </c>
+      <c r="B326">
+        <v>17</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>7</v>
+      </c>
+      <c r="B327">
+        <v>17</v>
+      </c>
+      <c r="C327">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>7</v>
+      </c>
+      <c r="B328">
+        <v>17</v>
+      </c>
+      <c r="C328">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>7</v>
+      </c>
+      <c r="B329">
+        <v>17</v>
+      </c>
+      <c r="C329">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>7</v>
+      </c>
+      <c r="B330">
+        <v>10</v>
+      </c>
+      <c r="C330">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>7</v>
+      </c>
+      <c r="B331">
+        <v>9</v>
+      </c>
+      <c r="C331">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>7</v>
+      </c>
+      <c r="B332">
+        <v>5</v>
+      </c>
+      <c r="C332">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>7</v>
+      </c>
+      <c r="B333">
+        <v>10</v>
+      </c>
+      <c r="C333">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>7</v>
+      </c>
+      <c r="B334">
+        <v>2</v>
+      </c>
+      <c r="C334">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>7</v>
+      </c>
+      <c r="B335">
+        <v>2</v>
+      </c>
+      <c r="C335">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>7</v>
+      </c>
+      <c r="B336">
+        <v>2</v>
+      </c>
+      <c r="C336">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>7</v>
+      </c>
+      <c r="B337">
+        <v>2</v>
+      </c>
+      <c r="C337">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>7</v>
+      </c>
+      <c r="B338">
+        <v>10</v>
+      </c>
+      <c r="C338">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>7</v>
+      </c>
+      <c r="B339">
+        <v>13</v>
+      </c>
+      <c r="C339">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>7</v>
+      </c>
+      <c r="B340">
+        <v>10</v>
+      </c>
+      <c r="C340">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>7</v>
+      </c>
+      <c r="B341">
+        <v>12</v>
+      </c>
+      <c r="C341">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>7</v>
+      </c>
+      <c r="B342">
+        <v>4</v>
+      </c>
+      <c r="C342">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>7</v>
+      </c>
+      <c r="B343">
+        <v>4</v>
+      </c>
+      <c r="C343">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>7</v>
+      </c>
+      <c r="B344">
+        <v>5</v>
+      </c>
+      <c r="C344">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>7</v>
+      </c>
+      <c r="B345">
+        <v>5</v>
+      </c>
+      <c r="C345">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>7</v>
+      </c>
+      <c r="B346">
+        <v>14</v>
+      </c>
+      <c r="C346">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>7</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+      <c r="C347">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>7</v>
+      </c>
+      <c r="B348">
+        <v>1</v>
+      </c>
+      <c r="C348">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>7</v>
+      </c>
+      <c r="B349">
+        <v>1</v>
+      </c>
+      <c r="C349">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>7</v>
+      </c>
+      <c r="B350">
+        <v>1</v>
+      </c>
+      <c r="C350">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>7</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+      <c r="C351">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>7</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+      <c r="C352">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>7</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+      <c r="C353">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>7</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+      <c r="C354">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>7</v>
+      </c>
+      <c r="B355">
+        <v>9</v>
+      </c>
+      <c r="C355">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>7</v>
+      </c>
+      <c r="B356">
+        <v>9</v>
+      </c>
+      <c r="C356">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>7</v>
+      </c>
+      <c r="B357">
+        <v>9</v>
+      </c>
+      <c r="C357">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>7</v>
+      </c>
+      <c r="B358">
+        <v>9</v>
+      </c>
+      <c r="C358">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>7</v>
+      </c>
+      <c r="B359">
+        <v>6</v>
+      </c>
+      <c r="C359">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>7</v>
+      </c>
+      <c r="B360">
+        <v>6</v>
+      </c>
+      <c r="C360">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>7</v>
+      </c>
+      <c r="B361">
+        <v>6</v>
+      </c>
+      <c r="C361">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>7</v>
+      </c>
+      <c r="B362">
+        <v>16</v>
+      </c>
+      <c r="C362">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>7</v>
+      </c>
+      <c r="B363">
+        <v>10</v>
+      </c>
+      <c r="C363">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>7</v>
+      </c>
+      <c r="B364">
+        <v>12</v>
+      </c>
+      <c r="C364">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>7</v>
+      </c>
+      <c r="B365">
+        <v>4</v>
+      </c>
+      <c r="C365">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>7</v>
+      </c>
+      <c r="B366">
+        <v>4</v>
+      </c>
+      <c r="C366">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>7</v>
+      </c>
+      <c r="B367">
+        <v>7</v>
+      </c>
+      <c r="C367">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>7</v>
+      </c>
+      <c r="B368">
+        <v>7</v>
+      </c>
+      <c r="C368">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>7</v>
+      </c>
+      <c r="B369">
+        <v>7</v>
+      </c>
+      <c r="C369">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>7</v>
+      </c>
+      <c r="B370">
+        <v>11</v>
+      </c>
+      <c r="C370">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>7</v>
+      </c>
+      <c r="B371">
+        <v>11</v>
+      </c>
+      <c r="C371">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>7</v>
+      </c>
+      <c r="B372">
+        <v>11</v>
+      </c>
+      <c r="C372">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>7</v>
+      </c>
+      <c r="B373">
+        <v>11</v>
+      </c>
+      <c r="C373">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>7</v>
+      </c>
+      <c r="B374">
+        <v>3</v>
+      </c>
+      <c r="C374">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>7</v>
+      </c>
+      <c r="B375">
+        <v>3</v>
+      </c>
+      <c r="C375">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>7</v>
+      </c>
+      <c r="B376">
+        <v>3</v>
+      </c>
+      <c r="C376">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>7</v>
+      </c>
+      <c r="B377">
+        <v>8</v>
+      </c>
+      <c r="C377">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>7</v>
+      </c>
+      <c r="B378">
+        <v>8</v>
+      </c>
+      <c r="C378">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>7</v>
+      </c>
+      <c r="B379">
+        <v>8</v>
+      </c>
+      <c r="C379">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>8</v>
+      </c>
+      <c r="B380">
+        <v>17</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>8</v>
+      </c>
+      <c r="B381">
+        <v>17</v>
+      </c>
+      <c r="C381">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>8</v>
+      </c>
+      <c r="B382">
+        <v>17</v>
+      </c>
+      <c r="C382">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>8</v>
+      </c>
+      <c r="B383">
+        <v>17</v>
+      </c>
+      <c r="C383">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>8</v>
+      </c>
+      <c r="B384">
+        <v>9</v>
+      </c>
+      <c r="C384">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>8</v>
+      </c>
+      <c r="B385">
+        <v>5</v>
+      </c>
+      <c r="C385">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>8</v>
+      </c>
+      <c r="B386">
+        <v>10</v>
+      </c>
+      <c r="C386">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>8</v>
+      </c>
+      <c r="B387">
+        <v>10</v>
+      </c>
+      <c r="C387">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>8</v>
+      </c>
+      <c r="B388">
+        <v>10</v>
+      </c>
+      <c r="C388">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>8</v>
+      </c>
+      <c r="B389">
+        <v>10</v>
+      </c>
+      <c r="C389">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>8</v>
+      </c>
+      <c r="B390">
+        <v>5</v>
+      </c>
+      <c r="C390">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>8</v>
+      </c>
+      <c r="B391">
+        <v>5</v>
+      </c>
+      <c r="C391">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>8</v>
+      </c>
+      <c r="B392">
+        <v>13</v>
+      </c>
+      <c r="C392">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>8</v>
+      </c>
+      <c r="B393">
+        <v>12</v>
+      </c>
+      <c r="C393">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>8</v>
+      </c>
+      <c r="B394">
+        <v>9</v>
+      </c>
+      <c r="C394">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>8</v>
+      </c>
+      <c r="B395">
+        <v>9</v>
+      </c>
+      <c r="C395">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>8</v>
+      </c>
+      <c r="B396">
+        <v>9</v>
+      </c>
+      <c r="C396">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>8</v>
+      </c>
+      <c r="B397">
+        <v>9</v>
+      </c>
+      <c r="C397">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>8</v>
+      </c>
+      <c r="B398">
+        <v>4</v>
+      </c>
+      <c r="C398">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>8</v>
+      </c>
+      <c r="B399">
+        <v>4</v>
+      </c>
+      <c r="C399">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>8</v>
+      </c>
+      <c r="B400">
+        <v>14</v>
+      </c>
+      <c r="C400">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>8</v>
+      </c>
+      <c r="B401">
+        <v>1</v>
+      </c>
+      <c r="C401">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>8</v>
+      </c>
+      <c r="B402">
+        <v>1</v>
+      </c>
+      <c r="C402">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>8</v>
+      </c>
+      <c r="B403">
+        <v>1</v>
+      </c>
+      <c r="C403">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>8</v>
+      </c>
+      <c r="B404">
+        <v>1</v>
+      </c>
+      <c r="C404">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>8</v>
+      </c>
+      <c r="B405">
+        <v>1</v>
+      </c>
+      <c r="C405">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>8</v>
+      </c>
+      <c r="B406">
+        <v>1</v>
+      </c>
+      <c r="C406">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>8</v>
+      </c>
+      <c r="B407">
+        <v>1</v>
+      </c>
+      <c r="C407">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>8</v>
+      </c>
+      <c r="B408">
+        <v>1</v>
+      </c>
+      <c r="C408">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>8</v>
+      </c>
+      <c r="B409">
+        <v>4</v>
+      </c>
+      <c r="C409">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>8</v>
+      </c>
+      <c r="B410">
+        <v>4</v>
+      </c>
+      <c r="C410">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>8</v>
+      </c>
+      <c r="B411">
+        <v>12</v>
+      </c>
+      <c r="C411">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>8</v>
+      </c>
+      <c r="B412">
+        <v>10</v>
+      </c>
+      <c r="C412">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>8</v>
+      </c>
+      <c r="B413">
+        <v>8</v>
+      </c>
+      <c r="C413">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>8</v>
+      </c>
+      <c r="B414">
+        <v>8</v>
+      </c>
+      <c r="C414">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>8</v>
+      </c>
+      <c r="B415">
+        <v>8</v>
+      </c>
+      <c r="C415">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>8</v>
+      </c>
+      <c r="B416">
+        <v>16</v>
+      </c>
+      <c r="C416">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>8</v>
+      </c>
+      <c r="B417">
+        <v>2</v>
+      </c>
+      <c r="C417">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>8</v>
+      </c>
+      <c r="B418">
+        <v>2</v>
+      </c>
+      <c r="C418">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>8</v>
+      </c>
+      <c r="B419">
+        <v>2</v>
+      </c>
+      <c r="C419">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>8</v>
+      </c>
+      <c r="B420">
+        <v>2</v>
+      </c>
+      <c r="C420">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>8</v>
+      </c>
+      <c r="B421">
+        <v>11</v>
+      </c>
+      <c r="C421">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>8</v>
+      </c>
+      <c r="B422">
+        <v>11</v>
+      </c>
+      <c r="C422">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>8</v>
+      </c>
+      <c r="B423">
+        <v>11</v>
+      </c>
+      <c r="C423">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>8</v>
+      </c>
+      <c r="B424">
+        <v>11</v>
+      </c>
+      <c r="C424">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>8</v>
+      </c>
+      <c r="B425">
+        <v>3</v>
+      </c>
+      <c r="C425">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>8</v>
+      </c>
+      <c r="B426">
+        <v>3</v>
+      </c>
+      <c r="C426">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>8</v>
+      </c>
+      <c r="B427">
+        <v>3</v>
+      </c>
+      <c r="C427">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>8</v>
+      </c>
+      <c r="B428">
+        <v>7</v>
+      </c>
+      <c r="C428">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>8</v>
+      </c>
+      <c r="B429">
+        <v>7</v>
+      </c>
+      <c r="C429">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>8</v>
+      </c>
+      <c r="B430">
+        <v>7</v>
+      </c>
+      <c r="C430">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>8</v>
+      </c>
+      <c r="B431">
+        <v>6</v>
+      </c>
+      <c r="C431">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>8</v>
+      </c>
+      <c r="B432">
+        <v>6</v>
+      </c>
+      <c r="C432">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>8</v>
+      </c>
+      <c r="B433">
+        <v>6</v>
+      </c>
+      <c r="C433">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>9</v>
+      </c>
+      <c r="B434">
+        <v>17</v>
+      </c>
+      <c r="C434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>9</v>
+      </c>
+      <c r="B435">
+        <v>17</v>
+      </c>
+      <c r="C435">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>9</v>
+      </c>
+      <c r="B436">
+        <v>17</v>
+      </c>
+      <c r="C436">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>9</v>
+      </c>
+      <c r="B437">
+        <v>17</v>
+      </c>
+      <c r="C437">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>9</v>
+      </c>
+      <c r="B438">
+        <v>10</v>
+      </c>
+      <c r="C438">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>9</v>
+      </c>
+      <c r="B439">
+        <v>9</v>
+      </c>
+      <c r="C439">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>9</v>
+      </c>
+      <c r="B440">
+        <v>10</v>
+      </c>
+      <c r="C440">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>9</v>
+      </c>
+      <c r="B441">
+        <v>5</v>
+      </c>
+      <c r="C441">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>9</v>
+      </c>
+      <c r="B442">
+        <v>5</v>
+      </c>
+      <c r="C442">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>9</v>
+      </c>
+      <c r="B443">
+        <v>5</v>
+      </c>
+      <c r="C443">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>9</v>
+      </c>
+      <c r="B444">
+        <v>4</v>
+      </c>
+      <c r="C444">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>9</v>
+      </c>
+      <c r="B445">
+        <v>4</v>
+      </c>
+      <c r="C445">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>9</v>
+      </c>
+      <c r="B446">
+        <v>1</v>
+      </c>
+      <c r="C446">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>9</v>
+      </c>
+      <c r="B447">
+        <v>1</v>
+      </c>
+      <c r="C447">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>9</v>
+      </c>
+      <c r="B448">
+        <v>1</v>
+      </c>
+      <c r="C448">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>9</v>
+      </c>
+      <c r="B449">
+        <v>1</v>
+      </c>
+      <c r="C449">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>9</v>
+      </c>
+      <c r="B450">
+        <v>1</v>
+      </c>
+      <c r="C450">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>9</v>
+      </c>
+      <c r="B451">
+        <v>1</v>
+      </c>
+      <c r="C451">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>9</v>
+      </c>
+      <c r="B452">
+        <v>1</v>
+      </c>
+      <c r="C452">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>9</v>
+      </c>
+      <c r="B453">
+        <v>1</v>
+      </c>
+      <c r="C453">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>9</v>
+      </c>
+      <c r="B454">
+        <v>14</v>
+      </c>
+      <c r="C454">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>9</v>
+      </c>
+      <c r="B455">
+        <v>12</v>
+      </c>
+      <c r="C455">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>9</v>
+      </c>
+      <c r="B456">
+        <v>13</v>
+      </c>
+      <c r="C456">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>9</v>
+      </c>
+      <c r="B457">
+        <v>9</v>
+      </c>
+      <c r="C457">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>9</v>
+      </c>
+      <c r="B458">
+        <v>9</v>
+      </c>
+      <c r="C458">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>9</v>
+      </c>
+      <c r="B459">
+        <v>9</v>
+      </c>
+      <c r="C459">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>9</v>
+      </c>
+      <c r="B460">
+        <v>9</v>
+      </c>
+      <c r="C460">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>9</v>
+      </c>
+      <c r="B461">
+        <v>10</v>
+      </c>
+      <c r="C461">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>9</v>
+      </c>
+      <c r="B462">
+        <v>11</v>
+      </c>
+      <c r="C462">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>9</v>
+      </c>
+      <c r="B463">
+        <v>11</v>
+      </c>
+      <c r="C463">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>9</v>
+      </c>
+      <c r="B464">
+        <v>11</v>
+      </c>
+      <c r="C464">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>9</v>
+      </c>
+      <c r="B465">
+        <v>11</v>
+      </c>
+      <c r="C465">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>9</v>
+      </c>
+      <c r="B466">
+        <v>12</v>
+      </c>
+      <c r="C466">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>9</v>
+      </c>
+      <c r="B467">
+        <v>7</v>
+      </c>
+      <c r="C467">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>9</v>
+      </c>
+      <c r="B468">
+        <v>7</v>
+      </c>
+      <c r="C468">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>9</v>
+      </c>
+      <c r="B469">
+        <v>7</v>
+      </c>
+      <c r="C469">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>9</v>
+      </c>
+      <c r="B470">
+        <v>16</v>
+      </c>
+      <c r="C470">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>9</v>
+      </c>
+      <c r="B471">
+        <v>8</v>
+      </c>
+      <c r="C471">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>9</v>
+      </c>
+      <c r="B472">
+        <v>8</v>
+      </c>
+      <c r="C472">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>9</v>
+      </c>
+      <c r="B473">
+        <v>8</v>
+      </c>
+      <c r="C473">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>9</v>
+      </c>
+      <c r="B474">
+        <v>10</v>
+      </c>
+      <c r="C474">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>9</v>
+      </c>
+      <c r="B475">
+        <v>3</v>
+      </c>
+      <c r="C475">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>9</v>
+      </c>
+      <c r="B476">
+        <v>3</v>
+      </c>
+      <c r="C476">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>9</v>
+      </c>
+      <c r="B477">
+        <v>3</v>
+      </c>
+      <c r="C477">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>9</v>
+      </c>
+      <c r="B478">
+        <v>10</v>
+      </c>
+      <c r="C478">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>9</v>
+      </c>
+      <c r="B479">
+        <v>4</v>
+      </c>
+      <c r="C479">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>9</v>
+      </c>
+      <c r="B480">
+        <v>4</v>
+      </c>
+      <c r="C480">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>9</v>
+      </c>
+      <c r="B481">
+        <v>6</v>
+      </c>
+      <c r="C481">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>9</v>
+      </c>
+      <c r="B482">
+        <v>6</v>
+      </c>
+      <c r="C482">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>9</v>
+      </c>
+      <c r="B483">
+        <v>6</v>
+      </c>
+      <c r="C483">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>9</v>
+      </c>
+      <c r="B484">
+        <v>2</v>
+      </c>
+      <c r="C484">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>9</v>
+      </c>
+      <c r="B485">
+        <v>2</v>
+      </c>
+      <c r="C485">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>9</v>
+      </c>
+      <c r="B486">
+        <v>2</v>
+      </c>
+      <c r="C486">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>9</v>
+      </c>
+      <c r="B487">
+        <v>2</v>
+      </c>
+      <c r="C487">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>10</v>
+      </c>
+      <c r="B488">
+        <v>17</v>
+      </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>10</v>
+      </c>
+      <c r="B489">
+        <v>17</v>
+      </c>
+      <c r="C489">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>10</v>
+      </c>
+      <c r="B490">
+        <v>17</v>
+      </c>
+      <c r="C490">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>10</v>
+      </c>
+      <c r="B491">
+        <v>17</v>
+      </c>
+      <c r="C491">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>10</v>
+      </c>
+      <c r="B492">
+        <v>10</v>
+      </c>
+      <c r="C492">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>10</v>
+      </c>
+      <c r="B493">
+        <v>10</v>
+      </c>
+      <c r="C493">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>10</v>
+      </c>
+      <c r="B494">
+        <v>9</v>
+      </c>
+      <c r="C494">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>10</v>
+      </c>
+      <c r="B495">
+        <v>5</v>
+      </c>
+      <c r="C495">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>10</v>
+      </c>
+      <c r="B496">
+        <v>4</v>
+      </c>
+      <c r="C496">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>10</v>
+      </c>
+      <c r="B497">
+        <v>4</v>
+      </c>
+      <c r="C497">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>10</v>
+      </c>
+      <c r="B498">
+        <v>10</v>
+      </c>
+      <c r="C498">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>10</v>
+      </c>
+      <c r="B499">
+        <v>12</v>
+      </c>
+      <c r="C499">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>10</v>
+      </c>
+      <c r="B500">
+        <v>6</v>
+      </c>
+      <c r="C500">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>10</v>
+      </c>
+      <c r="B501">
+        <v>6</v>
+      </c>
+      <c r="C501">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>10</v>
+      </c>
+      <c r="B502">
+        <v>6</v>
+      </c>
+      <c r="C502">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>10</v>
+      </c>
+      <c r="B503">
+        <v>9</v>
+      </c>
+      <c r="C503">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>10</v>
+      </c>
+      <c r="B504">
+        <v>9</v>
+      </c>
+      <c r="C504">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>10</v>
+      </c>
+      <c r="B505">
+        <v>9</v>
+      </c>
+      <c r="C505">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>10</v>
+      </c>
+      <c r="B506">
+        <v>9</v>
+      </c>
+      <c r="C506">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>10</v>
+      </c>
+      <c r="B507">
+        <v>10</v>
+      </c>
+      <c r="C507">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>10</v>
+      </c>
+      <c r="B508">
+        <v>14</v>
+      </c>
+      <c r="C508">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>10</v>
+      </c>
+      <c r="B509">
+        <v>2</v>
+      </c>
+      <c r="C509">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>10</v>
+      </c>
+      <c r="B510">
+        <v>2</v>
+      </c>
+      <c r="C510">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>10</v>
+      </c>
+      <c r="B511">
+        <v>2</v>
+      </c>
+      <c r="C511">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>10</v>
+      </c>
+      <c r="B512">
+        <v>2</v>
+      </c>
+      <c r="C512">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>10</v>
+      </c>
+      <c r="B513">
+        <v>12</v>
+      </c>
+      <c r="C513">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>10</v>
+      </c>
+      <c r="B514">
+        <v>5</v>
+      </c>
+      <c r="C514">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>10</v>
+      </c>
+      <c r="B515">
+        <v>5</v>
+      </c>
+      <c r="C515">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>10</v>
+      </c>
+      <c r="B516">
+        <v>13</v>
+      </c>
+      <c r="C516">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>10</v>
+      </c>
+      <c r="B517">
+        <v>1</v>
+      </c>
+      <c r="C517">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>10</v>
+      </c>
+      <c r="B518">
+        <v>1</v>
+      </c>
+      <c r="C518">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>10</v>
+      </c>
+      <c r="B519">
+        <v>1</v>
+      </c>
+      <c r="C519">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>10</v>
+      </c>
+      <c r="B520">
+        <v>1</v>
+      </c>
+      <c r="C520">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521">
+        <v>10</v>
+      </c>
+      <c r="B521">
+        <v>1</v>
+      </c>
+      <c r="C521">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>10</v>
+      </c>
+      <c r="B522">
+        <v>1</v>
+      </c>
+      <c r="C522">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>10</v>
+      </c>
+      <c r="B523">
+        <v>1</v>
+      </c>
+      <c r="C523">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>10</v>
+      </c>
+      <c r="B524">
+        <v>1</v>
+      </c>
+      <c r="C524">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>10</v>
+      </c>
+      <c r="B525">
+        <v>15</v>
+      </c>
+      <c r="C525">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>10</v>
+      </c>
+      <c r="B526">
+        <v>3</v>
+      </c>
+      <c r="C526">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>10</v>
+      </c>
+      <c r="B527">
+        <v>3</v>
+      </c>
+      <c r="C527">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528">
+        <v>10</v>
+      </c>
+      <c r="B528">
+        <v>3</v>
+      </c>
+      <c r="C528">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>10</v>
+      </c>
+      <c r="B529">
+        <v>4</v>
+      </c>
+      <c r="C529">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530">
+        <v>10</v>
+      </c>
+      <c r="B530">
+        <v>4</v>
+      </c>
+      <c r="C530">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>10</v>
+      </c>
+      <c r="B531">
+        <v>10</v>
+      </c>
+      <c r="C531">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>10</v>
+      </c>
+      <c r="B532">
+        <v>8</v>
+      </c>
+      <c r="C532">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>10</v>
+      </c>
+      <c r="B533">
+        <v>8</v>
+      </c>
+      <c r="C533">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>10</v>
+      </c>
+      <c r="B534">
+        <v>8</v>
+      </c>
+      <c r="C534">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535">
+        <v>10</v>
+      </c>
+      <c r="B535">
+        <v>11</v>
+      </c>
+      <c r="C535">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>10</v>
+      </c>
+      <c r="B536">
+        <v>11</v>
+      </c>
+      <c r="C536">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>10</v>
+      </c>
+      <c r="B537">
+        <v>11</v>
+      </c>
+      <c r="C537">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>10</v>
+      </c>
+      <c r="B538">
+        <v>11</v>
+      </c>
+      <c r="C538">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>10</v>
+      </c>
+      <c r="B539">
+        <v>7</v>
+      </c>
+      <c r="C539">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>10</v>
+      </c>
+      <c r="B540">
+        <v>7</v>
+      </c>
+      <c r="C540">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541">
+        <v>10</v>
+      </c>
+      <c r="B541">
+        <v>7</v>
+      </c>
+      <c r="C541">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542">
+        <v>11</v>
+      </c>
+      <c r="B542">
+        <v>17</v>
+      </c>
+      <c r="C542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543">
+        <v>11</v>
+      </c>
+      <c r="B543">
+        <v>17</v>
+      </c>
+      <c r="C543">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544">
+        <v>11</v>
+      </c>
+      <c r="B544">
+        <v>17</v>
+      </c>
+      <c r="C544">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545">
+        <v>11</v>
+      </c>
+      <c r="B545">
+        <v>17</v>
+      </c>
+      <c r="C545">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546">
+        <v>11</v>
+      </c>
+      <c r="B546">
+        <v>9</v>
+      </c>
+      <c r="C546">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547">
+        <v>11</v>
+      </c>
+      <c r="B547">
+        <v>10</v>
+      </c>
+      <c r="C547">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548">
+        <v>11</v>
+      </c>
+      <c r="B548">
+        <v>5</v>
+      </c>
+      <c r="C548">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549">
+        <v>11</v>
+      </c>
+      <c r="B549">
+        <v>10</v>
+      </c>
+      <c r="C549">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550">
+        <v>11</v>
+      </c>
+      <c r="B550">
+        <v>10</v>
+      </c>
+      <c r="C550">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551">
+        <v>11</v>
+      </c>
+      <c r="B551">
+        <v>9</v>
+      </c>
+      <c r="C551">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552">
+        <v>11</v>
+      </c>
+      <c r="B552">
+        <v>9</v>
+      </c>
+      <c r="C552">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553">
+        <v>11</v>
+      </c>
+      <c r="B553">
+        <v>9</v>
+      </c>
+      <c r="C553">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554">
+        <v>11</v>
+      </c>
+      <c r="B554">
+        <v>9</v>
+      </c>
+      <c r="C554">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555">
+        <v>11</v>
+      </c>
+      <c r="B555">
+        <v>5</v>
+      </c>
+      <c r="C555">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556">
+        <v>11</v>
+      </c>
+      <c r="B556">
+        <v>5</v>
+      </c>
+      <c r="C556">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557">
+        <v>11</v>
+      </c>
+      <c r="B557">
+        <v>10</v>
+      </c>
+      <c r="C557">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558">
+        <v>11</v>
+      </c>
+      <c r="B558">
+        <v>2</v>
+      </c>
+      <c r="C558">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559">
+        <v>11</v>
+      </c>
+      <c r="B559">
+        <v>2</v>
+      </c>
+      <c r="C559">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560">
+        <v>11</v>
+      </c>
+      <c r="B560">
+        <v>2</v>
+      </c>
+      <c r="C560">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561">
+        <v>11</v>
+      </c>
+      <c r="B561">
+        <v>2</v>
+      </c>
+      <c r="C561">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562">
+        <v>11</v>
+      </c>
+      <c r="B562">
+        <v>14</v>
+      </c>
+      <c r="C562">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563">
+        <v>11</v>
+      </c>
+      <c r="B563">
+        <v>10</v>
+      </c>
+      <c r="C563">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564">
+        <v>11</v>
+      </c>
+      <c r="B564">
+        <v>12</v>
+      </c>
+      <c r="C564">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565">
+        <v>11</v>
+      </c>
+      <c r="B565">
+        <v>4</v>
+      </c>
+      <c r="C565">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566">
+        <v>11</v>
+      </c>
+      <c r="B566">
+        <v>4</v>
+      </c>
+      <c r="C566">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567">
+        <v>11</v>
+      </c>
+      <c r="B567">
+        <v>13</v>
+      </c>
+      <c r="C567">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568">
+        <v>11</v>
+      </c>
+      <c r="B568">
+        <v>8</v>
+      </c>
+      <c r="C568">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569">
+        <v>11</v>
+      </c>
+      <c r="B569">
+        <v>8</v>
+      </c>
+      <c r="C569">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570">
+        <v>11</v>
+      </c>
+      <c r="B570">
+        <v>8</v>
+      </c>
+      <c r="C570">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571">
+        <v>11</v>
+      </c>
+      <c r="B571">
+        <v>12</v>
+      </c>
+      <c r="C571">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572">
+        <v>11</v>
+      </c>
+      <c r="B572">
+        <v>7</v>
+      </c>
+      <c r="C572">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573">
+        <v>11</v>
+      </c>
+      <c r="B573">
+        <v>7</v>
+      </c>
+      <c r="C573">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574">
+        <v>11</v>
+      </c>
+      <c r="B574">
+        <v>7</v>
+      </c>
+      <c r="C574">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575">
+        <v>11</v>
+      </c>
+      <c r="B575">
+        <v>3</v>
+      </c>
+      <c r="C575">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576">
+        <v>11</v>
+      </c>
+      <c r="B576">
+        <v>3</v>
+      </c>
+      <c r="C576">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577">
+        <v>11</v>
+      </c>
+      <c r="B577">
+        <v>3</v>
+      </c>
+      <c r="C577">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578">
+        <v>11</v>
+      </c>
+      <c r="B578">
+        <v>16</v>
+      </c>
+      <c r="C578">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579">
+        <v>11</v>
+      </c>
+      <c r="B579">
+        <v>4</v>
+      </c>
+      <c r="C579">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580">
+        <v>11</v>
+      </c>
+      <c r="B580">
+        <v>4</v>
+      </c>
+      <c r="C580">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581">
+        <v>11</v>
+      </c>
+      <c r="B581">
+        <v>11</v>
+      </c>
+      <c r="C581">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582">
+        <v>11</v>
+      </c>
+      <c r="B582">
+        <v>11</v>
+      </c>
+      <c r="C582">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583">
+        <v>11</v>
+      </c>
+      <c r="B583">
+        <v>11</v>
+      </c>
+      <c r="C583">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584">
+        <v>11</v>
+      </c>
+      <c r="B584">
+        <v>11</v>
+      </c>
+      <c r="C584">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585">
+        <v>11</v>
+      </c>
+      <c r="B585">
+        <v>6</v>
+      </c>
+      <c r="C585">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586">
+        <v>11</v>
+      </c>
+      <c r="B586">
+        <v>6</v>
+      </c>
+      <c r="C586">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587">
+        <v>11</v>
+      </c>
+      <c r="B587">
+        <v>6</v>
+      </c>
+      <c r="C587">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588">
+        <v>11</v>
+      </c>
+      <c r="B588">
+        <v>1</v>
+      </c>
+      <c r="C588">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589">
+        <v>11</v>
+      </c>
+      <c r="B589">
+        <v>1</v>
+      </c>
+      <c r="C589">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590">
+        <v>11</v>
+      </c>
+      <c r="B590">
+        <v>1</v>
+      </c>
+      <c r="C590">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591">
+        <v>11</v>
+      </c>
+      <c r="B591">
+        <v>1</v>
+      </c>
+      <c r="C591">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592">
+        <v>11</v>
+      </c>
+      <c r="B592">
+        <v>1</v>
+      </c>
+      <c r="C592">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593">
+        <v>11</v>
+      </c>
+      <c r="B593">
+        <v>1</v>
+      </c>
+      <c r="C593">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594">
+        <v>11</v>
+      </c>
+      <c r="B594">
+        <v>1</v>
+      </c>
+      <c r="C594">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595">
+        <v>11</v>
+      </c>
+      <c r="B595">
+        <v>1</v>
+      </c>
+      <c r="C595">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C595">
+    <sortCondition ref="A2:A595"/>
+    <sortCondition ref="C2:C595"/>
+    <sortCondition ref="B2:B595"/>
+  </sortState>
+  <conditionalFormatting sqref="A2:C595">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3378D69E-5297-41D7-9922-AB8E14A8E492}">
+  <dimension ref="A1:BC16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="AY16" sqref="AY16"/>
+    </sheetView>
+    <sheetView workbookViewId="2"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2">
+        <v>43801</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43808</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43815</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43822</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43829</v>
+      </c>
+      <c r="G2" s="2">
+        <v>43836</v>
+      </c>
+      <c r="H2" s="2">
+        <v>43843</v>
+      </c>
+      <c r="I2" s="2">
+        <v>43850</v>
+      </c>
+      <c r="J2" s="2">
+        <v>43857</v>
+      </c>
+      <c r="K2" s="2">
+        <v>43864</v>
+      </c>
+      <c r="L2" s="2">
+        <v>43871</v>
+      </c>
+      <c r="M2" s="2">
+        <v>43878</v>
+      </c>
+      <c r="N2" s="2">
+        <v>43885</v>
+      </c>
+      <c r="O2" s="2">
+        <v>43892</v>
+      </c>
+      <c r="P2" s="2">
+        <v>43899</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>43906</v>
+      </c>
+      <c r="R2" s="2">
+        <v>43913</v>
+      </c>
+      <c r="S2" s="2">
+        <v>43920</v>
+      </c>
+      <c r="T2" s="2">
+        <v>43927</v>
+      </c>
+      <c r="U2" s="2">
+        <v>43934</v>
+      </c>
+      <c r="V2" s="2">
+        <v>43941</v>
+      </c>
+      <c r="W2" s="2">
+        <v>43948</v>
+      </c>
+      <c r="X2" s="2">
+        <v>43955</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>43962</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>43969</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>43976</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>43983</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>43990</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>43997</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>44004</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>44011</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>44018</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>44025</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>44032</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>44039</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>44046</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>44053</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>44060</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>44067</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>44074</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>44081</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>44088</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>44095</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>44102</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>44109</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>44116</v>
+      </c>
+      <c r="AV2" s="2">
+        <v>44123</v>
+      </c>
+      <c r="AW2" s="2">
+        <v>44130</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>44137</v>
+      </c>
+      <c r="AY2" s="2">
+        <v>44144</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>44151</v>
+      </c>
+      <c r="BA2" s="2">
+        <v>44158</v>
+      </c>
+      <c r="BB2" s="2">
+        <v>44165</v>
+      </c>
+      <c r="BC2" s="2">
+        <v>44172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="X3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ3" s="17"/>
+      <c r="BA3" s="17"/>
+      <c r="BB3" s="17"/>
+      <c r="BC3" s="17"/>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ4" s="17"/>
+      <c r="BA4" s="17"/>
+      <c r="BB4" s="17"/>
+      <c r="BC4" s="17"/>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AX5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ5" s="17"/>
+      <c r="BA5" s="17"/>
+      <c r="BB5" s="17"/>
+      <c r="BC5" s="17"/>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="X6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AX6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ6" s="17"/>
+      <c r="BA6" s="17"/>
+      <c r="BB6" s="17"/>
+      <c r="BC6" s="17"/>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="U7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AZ7" s="17"/>
+      <c r="BA7" s="17"/>
+      <c r="BB7" s="17"/>
+      <c r="BC7" s="17"/>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="U8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="X8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AX8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ8" s="17"/>
+      <c r="BA8" s="17"/>
+      <c r="BB8" s="17"/>
+      <c r="BC8" s="17"/>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="X9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AX9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC9" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="X10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC10" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="V11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="X11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD11" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE11" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF11" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG11" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC11" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AX12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC12" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="V13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC13" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" t="s">
+        <v>33</v>
+      </c>
+      <c r="T16" t="s">
+        <v>34</v>
+      </c>
+      <c r="U16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B3:AY3">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:AY4">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:AY5">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:AY6">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:AY7">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:AY8">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:BC9">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:BC10">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:BC11">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:BC12">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13:BC13">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Intern Roster/Intern Roster/Run_Ouput_v9.xlsx
+++ b/Intern Roster/Intern Roster/Run_Ouput_v9.xlsx
@@ -8,11 +8,11 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\SLE352 CSP\Repo\Rostering\Intern Roster\Intern Roster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2648454-3663-48A1-A68D-2F38EF96A3F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DDE2FD-BB54-450A-9B77-5223278EB5EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{D80137CF-C982-4E13-A893-2A148A79641A}"/>
-    <workbookView xWindow="-18380" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="1" xr2:uid="{DCF100C1-BD45-45ED-8A95-AB38DAB4DA05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{D80137CF-C982-4E13-A893-2A148A79641A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DCF100C1-BD45-45ED-8A95-AB38DAB4DA05}"/>
   </bookViews>
   <sheets>
     <sheet name="v9.1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="V9.1 PRINT" sheetId="3" r:id="rId3"/>
     <sheet name="v9.3" sheetId="4" r:id="rId4"/>
     <sheet name="v9.3 roster" sheetId="5" r:id="rId5"/>
+    <sheet name="v9.4" sheetId="6" r:id="rId6"/>
+    <sheet name="v9.4 roster" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="41">
   <si>
     <t>Intern  (size 11)</t>
   </si>
@@ -18791,7 +18793,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
+    <sheetView workbookViewId="1">
       <selection activeCell="AY16" sqref="AY16"/>
     </sheetView>
     <sheetView workbookViewId="2"/>
@@ -20875,6 +20877,8855 @@
       </c>
       <c r="BC13" s="8" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" t="s">
+        <v>33</v>
+      </c>
+      <c r="T16" t="s">
+        <v>34</v>
+      </c>
+      <c r="U16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B3:AY3">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:AY4">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:AY5">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:AY6">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:AY7">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:AY8">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:BC9">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:BC10">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:BC11">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:BC12">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13:BC13">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B20369-2814-49D8-9F81-E6075C6AA341}">
+  <dimension ref="A1:C595"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A562" workbookViewId="1">
+      <selection activeCell="B586" sqref="B586"/>
+    </sheetView>
+    <sheetView workbookViewId="2"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>13</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>15</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>8</v>
+      </c>
+      <c r="C50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>8</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>17</v>
+      </c>
+      <c r="C52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>17</v>
+      </c>
+      <c r="C53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>17</v>
+      </c>
+      <c r="C54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>17</v>
+      </c>
+      <c r="C55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68">
+        <v>8</v>
+      </c>
+      <c r="C68">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76">
+        <v>14</v>
+      </c>
+      <c r="C76">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2</v>
+      </c>
+      <c r="B77">
+        <v>13</v>
+      </c>
+      <c r="C77">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78">
+        <v>12</v>
+      </c>
+      <c r="C78">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="B79">
+        <v>9</v>
+      </c>
+      <c r="C79">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2</v>
+      </c>
+      <c r="B80">
+        <v>9</v>
+      </c>
+      <c r="C80">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2</v>
+      </c>
+      <c r="B81">
+        <v>9</v>
+      </c>
+      <c r="C81">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82">
+        <v>9</v>
+      </c>
+      <c r="C82">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83">
+        <v>4</v>
+      </c>
+      <c r="C83">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90">
+        <v>6</v>
+      </c>
+      <c r="C90">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="B91">
+        <v>6</v>
+      </c>
+      <c r="C91">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2</v>
+      </c>
+      <c r="B92">
+        <v>6</v>
+      </c>
+      <c r="C92">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2</v>
+      </c>
+      <c r="B93">
+        <v>15</v>
+      </c>
+      <c r="C93">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2</v>
+      </c>
+      <c r="B94">
+        <v>11</v>
+      </c>
+      <c r="C94">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="B95">
+        <v>11</v>
+      </c>
+      <c r="C95">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2</v>
+      </c>
+      <c r="B96">
+        <v>11</v>
+      </c>
+      <c r="C96">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2</v>
+      </c>
+      <c r="B97">
+        <v>11</v>
+      </c>
+      <c r="C97">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2</v>
+      </c>
+      <c r="B98">
+        <v>7</v>
+      </c>
+      <c r="C98">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="B99">
+        <v>7</v>
+      </c>
+      <c r="C99">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="B100">
+        <v>7</v>
+      </c>
+      <c r="C100">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+      <c r="C101">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2</v>
+      </c>
+      <c r="B105">
+        <v>12</v>
+      </c>
+      <c r="C105">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2</v>
+      </c>
+      <c r="B106">
+        <v>17</v>
+      </c>
+      <c r="C106">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2</v>
+      </c>
+      <c r="B107">
+        <v>17</v>
+      </c>
+      <c r="C107">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2</v>
+      </c>
+      <c r="B108">
+        <v>17</v>
+      </c>
+      <c r="C108">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2</v>
+      </c>
+      <c r="B109">
+        <v>17</v>
+      </c>
+      <c r="C109">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>3</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>3</v>
+      </c>
+      <c r="B111">
+        <v>10</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>3</v>
+      </c>
+      <c r="B112">
+        <v>9</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>3</v>
+      </c>
+      <c r="B113">
+        <v>10</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>3</v>
+      </c>
+      <c r="B114">
+        <v>4</v>
+      </c>
+      <c r="C114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>3</v>
+      </c>
+      <c r="B115">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>3</v>
+      </c>
+      <c r="B116">
+        <v>6</v>
+      </c>
+      <c r="C116">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>3</v>
+      </c>
+      <c r="B117">
+        <v>6</v>
+      </c>
+      <c r="C117">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>3</v>
+      </c>
+      <c r="B118">
+        <v>6</v>
+      </c>
+      <c r="C118">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>3</v>
+      </c>
+      <c r="B119">
+        <v>12</v>
+      </c>
+      <c r="C119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>3</v>
+      </c>
+      <c r="B120">
+        <v>10</v>
+      </c>
+      <c r="C120">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>3</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>3</v>
+      </c>
+      <c r="B122">
+        <v>3</v>
+      </c>
+      <c r="C122">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>3</v>
+      </c>
+      <c r="B123">
+        <v>3</v>
+      </c>
+      <c r="C123">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>3</v>
+      </c>
+      <c r="B124">
+        <v>5</v>
+      </c>
+      <c r="C124">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>3</v>
+      </c>
+      <c r="B125">
+        <v>5</v>
+      </c>
+      <c r="C125">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>3</v>
+      </c>
+      <c r="B126">
+        <v>13</v>
+      </c>
+      <c r="C126">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>3</v>
+      </c>
+      <c r="B127">
+        <v>8</v>
+      </c>
+      <c r="C127">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>3</v>
+      </c>
+      <c r="B128">
+        <v>8</v>
+      </c>
+      <c r="C128">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>3</v>
+      </c>
+      <c r="B129">
+        <v>8</v>
+      </c>
+      <c r="C129">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>3</v>
+      </c>
+      <c r="B130">
+        <v>14</v>
+      </c>
+      <c r="C130">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>3</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>3</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>3</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>3</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>3</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>3</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>3</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>3</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>3</v>
+      </c>
+      <c r="B139">
+        <v>7</v>
+      </c>
+      <c r="C139">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>3</v>
+      </c>
+      <c r="B140">
+        <v>7</v>
+      </c>
+      <c r="C140">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>3</v>
+      </c>
+      <c r="B141">
+        <v>7</v>
+      </c>
+      <c r="C141">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>3</v>
+      </c>
+      <c r="B142">
+        <v>9</v>
+      </c>
+      <c r="C142">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>3</v>
+      </c>
+      <c r="B143">
+        <v>9</v>
+      </c>
+      <c r="C143">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>3</v>
+      </c>
+      <c r="B144">
+        <v>9</v>
+      </c>
+      <c r="C144">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>3</v>
+      </c>
+      <c r="B145">
+        <v>9</v>
+      </c>
+      <c r="C145">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>3</v>
+      </c>
+      <c r="B146">
+        <v>16</v>
+      </c>
+      <c r="C146">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>3</v>
+      </c>
+      <c r="B147">
+        <v>10</v>
+      </c>
+      <c r="C147">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>3</v>
+      </c>
+      <c r="B148">
+        <v>10</v>
+      </c>
+      <c r="C148">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>3</v>
+      </c>
+      <c r="B149">
+        <v>4</v>
+      </c>
+      <c r="C149">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>3</v>
+      </c>
+      <c r="B150">
+        <v>4</v>
+      </c>
+      <c r="C150">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>3</v>
+      </c>
+      <c r="B151">
+        <v>11</v>
+      </c>
+      <c r="C151">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>3</v>
+      </c>
+      <c r="B152">
+        <v>11</v>
+      </c>
+      <c r="C152">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>3</v>
+      </c>
+      <c r="B153">
+        <v>11</v>
+      </c>
+      <c r="C153">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>3</v>
+      </c>
+      <c r="B154">
+        <v>11</v>
+      </c>
+      <c r="C154">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>3</v>
+      </c>
+      <c r="B155">
+        <v>12</v>
+      </c>
+      <c r="C155">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>3</v>
+      </c>
+      <c r="B156">
+        <v>2</v>
+      </c>
+      <c r="C156">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>3</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>3</v>
+      </c>
+      <c r="B158">
+        <v>2</v>
+      </c>
+      <c r="C158">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>3</v>
+      </c>
+      <c r="B159">
+        <v>2</v>
+      </c>
+      <c r="C159">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>3</v>
+      </c>
+      <c r="B160">
+        <v>17</v>
+      </c>
+      <c r="C160">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>3</v>
+      </c>
+      <c r="B161">
+        <v>17</v>
+      </c>
+      <c r="C161">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>3</v>
+      </c>
+      <c r="B162">
+        <v>17</v>
+      </c>
+      <c r="C162">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>3</v>
+      </c>
+      <c r="B163">
+        <v>17</v>
+      </c>
+      <c r="C163">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>4</v>
+      </c>
+      <c r="B164">
+        <v>9</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>4</v>
+      </c>
+      <c r="B165">
+        <v>10</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>4</v>
+      </c>
+      <c r="B166">
+        <v>5</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>4</v>
+      </c>
+      <c r="B167">
+        <v>10</v>
+      </c>
+      <c r="C167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>4</v>
+      </c>
+      <c r="B168">
+        <v>2</v>
+      </c>
+      <c r="C168">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>4</v>
+      </c>
+      <c r="B169">
+        <v>2</v>
+      </c>
+      <c r="C169">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>4</v>
+      </c>
+      <c r="B170">
+        <v>2</v>
+      </c>
+      <c r="C170">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>4</v>
+      </c>
+      <c r="B171">
+        <v>2</v>
+      </c>
+      <c r="C171">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>4</v>
+      </c>
+      <c r="B172">
+        <v>8</v>
+      </c>
+      <c r="C172">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>4</v>
+      </c>
+      <c r="B173">
+        <v>8</v>
+      </c>
+      <c r="C173">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>4</v>
+      </c>
+      <c r="B174">
+        <v>8</v>
+      </c>
+      <c r="C174">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>4</v>
+      </c>
+      <c r="B175">
+        <v>7</v>
+      </c>
+      <c r="C175">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>4</v>
+      </c>
+      <c r="B176">
+        <v>7</v>
+      </c>
+      <c r="C176">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>4</v>
+      </c>
+      <c r="B177">
+        <v>7</v>
+      </c>
+      <c r="C177">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>4</v>
+      </c>
+      <c r="B178">
+        <v>3</v>
+      </c>
+      <c r="C178">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>4</v>
+      </c>
+      <c r="B179">
+        <v>3</v>
+      </c>
+      <c r="C179">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>4</v>
+      </c>
+      <c r="B180">
+        <v>3</v>
+      </c>
+      <c r="C180">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>4</v>
+      </c>
+      <c r="B181">
+        <v>12</v>
+      </c>
+      <c r="C181">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>4</v>
+      </c>
+      <c r="B182">
+        <v>10</v>
+      </c>
+      <c r="C182">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>4</v>
+      </c>
+      <c r="B183">
+        <v>10</v>
+      </c>
+      <c r="C183">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>4</v>
+      </c>
+      <c r="B184">
+        <v>14</v>
+      </c>
+      <c r="C184">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>4</v>
+      </c>
+      <c r="B185">
+        <v>6</v>
+      </c>
+      <c r="C185">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>4</v>
+      </c>
+      <c r="B186">
+        <v>6</v>
+      </c>
+      <c r="C186">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>4</v>
+      </c>
+      <c r="B187">
+        <v>6</v>
+      </c>
+      <c r="C187">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>4</v>
+      </c>
+      <c r="B188">
+        <v>13</v>
+      </c>
+      <c r="C188">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>4</v>
+      </c>
+      <c r="B189">
+        <v>4</v>
+      </c>
+      <c r="C189">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>4</v>
+      </c>
+      <c r="B190">
+        <v>4</v>
+      </c>
+      <c r="C190">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>4</v>
+      </c>
+      <c r="B191">
+        <v>5</v>
+      </c>
+      <c r="C191">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>4</v>
+      </c>
+      <c r="B192">
+        <v>5</v>
+      </c>
+      <c r="C192">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>4</v>
+      </c>
+      <c r="B193">
+        <v>4</v>
+      </c>
+      <c r="C193">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>4</v>
+      </c>
+      <c r="B194">
+        <v>4</v>
+      </c>
+      <c r="C194">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>4</v>
+      </c>
+      <c r="B195">
+        <v>9</v>
+      </c>
+      <c r="C195">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>4</v>
+      </c>
+      <c r="B196">
+        <v>9</v>
+      </c>
+      <c r="C196">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>4</v>
+      </c>
+      <c r="B197">
+        <v>9</v>
+      </c>
+      <c r="C197">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>4</v>
+      </c>
+      <c r="B198">
+        <v>9</v>
+      </c>
+      <c r="C198">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>4</v>
+      </c>
+      <c r="B199">
+        <v>10</v>
+      </c>
+      <c r="C199">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>4</v>
+      </c>
+      <c r="B200">
+        <v>16</v>
+      </c>
+      <c r="C200">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>4</v>
+      </c>
+      <c r="B201">
+        <v>12</v>
+      </c>
+      <c r="C201">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>4</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>4</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>4</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>4</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+      <c r="C205">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>4</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>4</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>4</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>4</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>4</v>
+      </c>
+      <c r="B210">
+        <v>11</v>
+      </c>
+      <c r="C210">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>4</v>
+      </c>
+      <c r="B211">
+        <v>11</v>
+      </c>
+      <c r="C211">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>4</v>
+      </c>
+      <c r="B212">
+        <v>11</v>
+      </c>
+      <c r="C212">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>4</v>
+      </c>
+      <c r="B213">
+        <v>11</v>
+      </c>
+      <c r="C213">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>4</v>
+      </c>
+      <c r="B214">
+        <v>17</v>
+      </c>
+      <c r="C214">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>4</v>
+      </c>
+      <c r="B215">
+        <v>17</v>
+      </c>
+      <c r="C215">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>4</v>
+      </c>
+      <c r="B216">
+        <v>17</v>
+      </c>
+      <c r="C216">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>4</v>
+      </c>
+      <c r="B217">
+        <v>17</v>
+      </c>
+      <c r="C217">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>5</v>
+      </c>
+      <c r="B218">
+        <v>5</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>5</v>
+      </c>
+      <c r="B219">
+        <v>10</v>
+      </c>
+      <c r="C219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>5</v>
+      </c>
+      <c r="B220">
+        <v>9</v>
+      </c>
+      <c r="C220">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>5</v>
+      </c>
+      <c r="B221">
+        <v>10</v>
+      </c>
+      <c r="C221">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>5</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>5</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>5</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>5</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>5</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="C226">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>5</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>5</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>5</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>5</v>
+      </c>
+      <c r="B230">
+        <v>9</v>
+      </c>
+      <c r="C230">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>5</v>
+      </c>
+      <c r="B231">
+        <v>9</v>
+      </c>
+      <c r="C231">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>5</v>
+      </c>
+      <c r="B232">
+        <v>9</v>
+      </c>
+      <c r="C232">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>5</v>
+      </c>
+      <c r="B233">
+        <v>9</v>
+      </c>
+      <c r="C233">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>5</v>
+      </c>
+      <c r="B234">
+        <v>12</v>
+      </c>
+      <c r="C234">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>5</v>
+      </c>
+      <c r="B235">
+        <v>7</v>
+      </c>
+      <c r="C235">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>5</v>
+      </c>
+      <c r="B236">
+        <v>7</v>
+      </c>
+      <c r="C236">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>5</v>
+      </c>
+      <c r="B237">
+        <v>7</v>
+      </c>
+      <c r="C237">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>5</v>
+      </c>
+      <c r="B238">
+        <v>14</v>
+      </c>
+      <c r="C238">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>5</v>
+      </c>
+      <c r="B239">
+        <v>4</v>
+      </c>
+      <c r="C239">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>5</v>
+      </c>
+      <c r="B240">
+        <v>4</v>
+      </c>
+      <c r="C240">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>5</v>
+      </c>
+      <c r="B241">
+        <v>5</v>
+      </c>
+      <c r="C241">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>5</v>
+      </c>
+      <c r="B242">
+        <v>5</v>
+      </c>
+      <c r="C242">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>5</v>
+      </c>
+      <c r="B243">
+        <v>13</v>
+      </c>
+      <c r="C243">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>5</v>
+      </c>
+      <c r="B244">
+        <v>6</v>
+      </c>
+      <c r="C244">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>5</v>
+      </c>
+      <c r="B245">
+        <v>6</v>
+      </c>
+      <c r="C245">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>5</v>
+      </c>
+      <c r="B246">
+        <v>6</v>
+      </c>
+      <c r="C246">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>5</v>
+      </c>
+      <c r="B247">
+        <v>10</v>
+      </c>
+      <c r="C247">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>5</v>
+      </c>
+      <c r="B248">
+        <v>3</v>
+      </c>
+      <c r="C248">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>5</v>
+      </c>
+      <c r="B249">
+        <v>3</v>
+      </c>
+      <c r="C249">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>5</v>
+      </c>
+      <c r="B250">
+        <v>3</v>
+      </c>
+      <c r="C250">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>5</v>
+      </c>
+      <c r="B251">
+        <v>4</v>
+      </c>
+      <c r="C251">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>5</v>
+      </c>
+      <c r="B252">
+        <v>4</v>
+      </c>
+      <c r="C252">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>5</v>
+      </c>
+      <c r="B253">
+        <v>10</v>
+      </c>
+      <c r="C253">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>5</v>
+      </c>
+      <c r="B254">
+        <v>16</v>
+      </c>
+      <c r="C254">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>5</v>
+      </c>
+      <c r="B255">
+        <v>10</v>
+      </c>
+      <c r="C255">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>5</v>
+      </c>
+      <c r="B256">
+        <v>12</v>
+      </c>
+      <c r="C256">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>5</v>
+      </c>
+      <c r="B257">
+        <v>2</v>
+      </c>
+      <c r="C257">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>5</v>
+      </c>
+      <c r="B258">
+        <v>2</v>
+      </c>
+      <c r="C258">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>5</v>
+      </c>
+      <c r="B259">
+        <v>2</v>
+      </c>
+      <c r="C259">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>5</v>
+      </c>
+      <c r="B260">
+        <v>2</v>
+      </c>
+      <c r="C260">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>5</v>
+      </c>
+      <c r="B261">
+        <v>8</v>
+      </c>
+      <c r="C261">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>5</v>
+      </c>
+      <c r="B262">
+        <v>8</v>
+      </c>
+      <c r="C262">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>5</v>
+      </c>
+      <c r="B263">
+        <v>8</v>
+      </c>
+      <c r="C263">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>5</v>
+      </c>
+      <c r="B264">
+        <v>11</v>
+      </c>
+      <c r="C264">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>5</v>
+      </c>
+      <c r="B265">
+        <v>11</v>
+      </c>
+      <c r="C265">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>5</v>
+      </c>
+      <c r="B266">
+        <v>11</v>
+      </c>
+      <c r="C266">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>5</v>
+      </c>
+      <c r="B267">
+        <v>11</v>
+      </c>
+      <c r="C267">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>5</v>
+      </c>
+      <c r="B268">
+        <v>17</v>
+      </c>
+      <c r="C268">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>5</v>
+      </c>
+      <c r="B269">
+        <v>17</v>
+      </c>
+      <c r="C269">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>5</v>
+      </c>
+      <c r="B270">
+        <v>17</v>
+      </c>
+      <c r="C270">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>5</v>
+      </c>
+      <c r="B271">
+        <v>17</v>
+      </c>
+      <c r="C271">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>6</v>
+      </c>
+      <c r="B272">
+        <v>10</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>6</v>
+      </c>
+      <c r="B273">
+        <v>9</v>
+      </c>
+      <c r="C273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>6</v>
+      </c>
+      <c r="B274">
+        <v>10</v>
+      </c>
+      <c r="C274">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>6</v>
+      </c>
+      <c r="B275">
+        <v>5</v>
+      </c>
+      <c r="C275">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>6</v>
+      </c>
+      <c r="B276">
+        <v>5</v>
+      </c>
+      <c r="C276">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>6</v>
+      </c>
+      <c r="B277">
+        <v>3</v>
+      </c>
+      <c r="C277">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>6</v>
+      </c>
+      <c r="B278">
+        <v>3</v>
+      </c>
+      <c r="C278">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>6</v>
+      </c>
+      <c r="B279">
+        <v>3</v>
+      </c>
+      <c r="C279">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>6</v>
+      </c>
+      <c r="B280">
+        <v>9</v>
+      </c>
+      <c r="C280">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>6</v>
+      </c>
+      <c r="B281">
+        <v>9</v>
+      </c>
+      <c r="C281">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>6</v>
+      </c>
+      <c r="B282">
+        <v>9</v>
+      </c>
+      <c r="C282">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>6</v>
+      </c>
+      <c r="B283">
+        <v>9</v>
+      </c>
+      <c r="C283">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>6</v>
+      </c>
+      <c r="B284">
+        <v>4</v>
+      </c>
+      <c r="C284">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>6</v>
+      </c>
+      <c r="B285">
+        <v>4</v>
+      </c>
+      <c r="C285">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>6</v>
+      </c>
+      <c r="B286">
+        <v>6</v>
+      </c>
+      <c r="C286">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>6</v>
+      </c>
+      <c r="B287">
+        <v>6</v>
+      </c>
+      <c r="C287">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>6</v>
+      </c>
+      <c r="B288">
+        <v>6</v>
+      </c>
+      <c r="C288">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>6</v>
+      </c>
+      <c r="B289">
+        <v>13</v>
+      </c>
+      <c r="C289">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>6</v>
+      </c>
+      <c r="B290">
+        <v>10</v>
+      </c>
+      <c r="C290">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>6</v>
+      </c>
+      <c r="B291">
+        <v>10</v>
+      </c>
+      <c r="C291">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>6</v>
+      </c>
+      <c r="B292">
+        <v>14</v>
+      </c>
+      <c r="C292">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>6</v>
+      </c>
+      <c r="B293">
+        <v>2</v>
+      </c>
+      <c r="C293">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>6</v>
+      </c>
+      <c r="B294">
+        <v>2</v>
+      </c>
+      <c r="C294">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>6</v>
+      </c>
+      <c r="B295">
+        <v>2</v>
+      </c>
+      <c r="C295">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>6</v>
+      </c>
+      <c r="B296">
+        <v>2</v>
+      </c>
+      <c r="C296">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>6</v>
+      </c>
+      <c r="B297">
+        <v>12</v>
+      </c>
+      <c r="C297">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>6</v>
+      </c>
+      <c r="B298">
+        <v>7</v>
+      </c>
+      <c r="C298">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>6</v>
+      </c>
+      <c r="B299">
+        <v>7</v>
+      </c>
+      <c r="C299">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>6</v>
+      </c>
+      <c r="B300">
+        <v>7</v>
+      </c>
+      <c r="C300">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>6</v>
+      </c>
+      <c r="B301">
+        <v>5</v>
+      </c>
+      <c r="C301">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>6</v>
+      </c>
+      <c r="B302">
+        <v>8</v>
+      </c>
+      <c r="C302">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>6</v>
+      </c>
+      <c r="B303">
+        <v>8</v>
+      </c>
+      <c r="C303">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>6</v>
+      </c>
+      <c r="B304">
+        <v>8</v>
+      </c>
+      <c r="C304">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>6</v>
+      </c>
+      <c r="B305">
+        <v>10</v>
+      </c>
+      <c r="C305">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>6</v>
+      </c>
+      <c r="B306">
+        <v>12</v>
+      </c>
+      <c r="C306">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>6</v>
+      </c>
+      <c r="B307">
+        <v>4</v>
+      </c>
+      <c r="C307">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>6</v>
+      </c>
+      <c r="B308">
+        <v>4</v>
+      </c>
+      <c r="C308">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>6</v>
+      </c>
+      <c r="B309">
+        <v>15</v>
+      </c>
+      <c r="C309">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>6</v>
+      </c>
+      <c r="B310">
+        <v>1</v>
+      </c>
+      <c r="C310">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>6</v>
+      </c>
+      <c r="B311">
+        <v>1</v>
+      </c>
+      <c r="C311">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>6</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+      <c r="C312">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>6</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+      <c r="C313">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>6</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+      <c r="C314">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>6</v>
+      </c>
+      <c r="B315">
+        <v>1</v>
+      </c>
+      <c r="C315">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>6</v>
+      </c>
+      <c r="B316">
+        <v>1</v>
+      </c>
+      <c r="C316">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>6</v>
+      </c>
+      <c r="B317">
+        <v>1</v>
+      </c>
+      <c r="C317">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>6</v>
+      </c>
+      <c r="B318">
+        <v>11</v>
+      </c>
+      <c r="C318">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>6</v>
+      </c>
+      <c r="B319">
+        <v>11</v>
+      </c>
+      <c r="C319">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>6</v>
+      </c>
+      <c r="B320">
+        <v>11</v>
+      </c>
+      <c r="C320">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>6</v>
+      </c>
+      <c r="B321">
+        <v>11</v>
+      </c>
+      <c r="C321">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>6</v>
+      </c>
+      <c r="B322">
+        <v>17</v>
+      </c>
+      <c r="C322">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>6</v>
+      </c>
+      <c r="B323">
+        <v>17</v>
+      </c>
+      <c r="C323">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>6</v>
+      </c>
+      <c r="B324">
+        <v>17</v>
+      </c>
+      <c r="C324">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>6</v>
+      </c>
+      <c r="B325">
+        <v>17</v>
+      </c>
+      <c r="C325">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>7</v>
+      </c>
+      <c r="B326">
+        <v>17</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>7</v>
+      </c>
+      <c r="B327">
+        <v>17</v>
+      </c>
+      <c r="C327">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>7</v>
+      </c>
+      <c r="B328">
+        <v>17</v>
+      </c>
+      <c r="C328">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>7</v>
+      </c>
+      <c r="B329">
+        <v>17</v>
+      </c>
+      <c r="C329">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>7</v>
+      </c>
+      <c r="B330">
+        <v>9</v>
+      </c>
+      <c r="C330">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>7</v>
+      </c>
+      <c r="B331">
+        <v>10</v>
+      </c>
+      <c r="C331">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>7</v>
+      </c>
+      <c r="B332">
+        <v>10</v>
+      </c>
+      <c r="C332">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>7</v>
+      </c>
+      <c r="B333">
+        <v>5</v>
+      </c>
+      <c r="C333">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>7</v>
+      </c>
+      <c r="B334">
+        <v>7</v>
+      </c>
+      <c r="C334">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>7</v>
+      </c>
+      <c r="B335">
+        <v>7</v>
+      </c>
+      <c r="C335">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>7</v>
+      </c>
+      <c r="B336">
+        <v>7</v>
+      </c>
+      <c r="C336">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>7</v>
+      </c>
+      <c r="B337">
+        <v>6</v>
+      </c>
+      <c r="C337">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>7</v>
+      </c>
+      <c r="B338">
+        <v>6</v>
+      </c>
+      <c r="C338">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>7</v>
+      </c>
+      <c r="B339">
+        <v>6</v>
+      </c>
+      <c r="C339">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>7</v>
+      </c>
+      <c r="B340">
+        <v>10</v>
+      </c>
+      <c r="C340">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>7</v>
+      </c>
+      <c r="B341">
+        <v>13</v>
+      </c>
+      <c r="C341">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>7</v>
+      </c>
+      <c r="B342">
+        <v>4</v>
+      </c>
+      <c r="C342">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>7</v>
+      </c>
+      <c r="B343">
+        <v>4</v>
+      </c>
+      <c r="C343">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>7</v>
+      </c>
+      <c r="B344">
+        <v>5</v>
+      </c>
+      <c r="C344">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>7</v>
+      </c>
+      <c r="B345">
+        <v>5</v>
+      </c>
+      <c r="C345">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>7</v>
+      </c>
+      <c r="B346">
+        <v>14</v>
+      </c>
+      <c r="C346">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>7</v>
+      </c>
+      <c r="B347">
+        <v>12</v>
+      </c>
+      <c r="C347">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>7</v>
+      </c>
+      <c r="B348">
+        <v>8</v>
+      </c>
+      <c r="C348">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>7</v>
+      </c>
+      <c r="B349">
+        <v>8</v>
+      </c>
+      <c r="C349">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>7</v>
+      </c>
+      <c r="B350">
+        <v>8</v>
+      </c>
+      <c r="C350">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>7</v>
+      </c>
+      <c r="B351">
+        <v>9</v>
+      </c>
+      <c r="C351">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>7</v>
+      </c>
+      <c r="B352">
+        <v>9</v>
+      </c>
+      <c r="C352">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>7</v>
+      </c>
+      <c r="B353">
+        <v>9</v>
+      </c>
+      <c r="C353">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>7</v>
+      </c>
+      <c r="B354">
+        <v>9</v>
+      </c>
+      <c r="C354">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>7</v>
+      </c>
+      <c r="B355">
+        <v>1</v>
+      </c>
+      <c r="C355">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>7</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
+      <c r="C356">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>7</v>
+      </c>
+      <c r="B357">
+        <v>1</v>
+      </c>
+      <c r="C357">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>7</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
+      </c>
+      <c r="C358">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>7</v>
+      </c>
+      <c r="B359">
+        <v>1</v>
+      </c>
+      <c r="C359">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>7</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+      <c r="C360">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>7</v>
+      </c>
+      <c r="B361">
+        <v>1</v>
+      </c>
+      <c r="C361">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>7</v>
+      </c>
+      <c r="B362">
+        <v>1</v>
+      </c>
+      <c r="C362">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>7</v>
+      </c>
+      <c r="B363">
+        <v>15</v>
+      </c>
+      <c r="C363">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>7</v>
+      </c>
+      <c r="B364">
+        <v>10</v>
+      </c>
+      <c r="C364">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>7</v>
+      </c>
+      <c r="B365">
+        <v>10</v>
+      </c>
+      <c r="C365">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>7</v>
+      </c>
+      <c r="B366">
+        <v>3</v>
+      </c>
+      <c r="C366">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>7</v>
+      </c>
+      <c r="B367">
+        <v>3</v>
+      </c>
+      <c r="C367">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>7</v>
+      </c>
+      <c r="B368">
+        <v>3</v>
+      </c>
+      <c r="C368">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>7</v>
+      </c>
+      <c r="B369">
+        <v>11</v>
+      </c>
+      <c r="C369">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>7</v>
+      </c>
+      <c r="B370">
+        <v>11</v>
+      </c>
+      <c r="C370">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>7</v>
+      </c>
+      <c r="B371">
+        <v>11</v>
+      </c>
+      <c r="C371">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>7</v>
+      </c>
+      <c r="B372">
+        <v>11</v>
+      </c>
+      <c r="C372">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>7</v>
+      </c>
+      <c r="B373">
+        <v>4</v>
+      </c>
+      <c r="C373">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>7</v>
+      </c>
+      <c r="B374">
+        <v>4</v>
+      </c>
+      <c r="C374">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>7</v>
+      </c>
+      <c r="B375">
+        <v>12</v>
+      </c>
+      <c r="C375">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>7</v>
+      </c>
+      <c r="B376">
+        <v>2</v>
+      </c>
+      <c r="C376">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>7</v>
+      </c>
+      <c r="B377">
+        <v>2</v>
+      </c>
+      <c r="C377">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>7</v>
+      </c>
+      <c r="B378">
+        <v>2</v>
+      </c>
+      <c r="C378">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>7</v>
+      </c>
+      <c r="B379">
+        <v>2</v>
+      </c>
+      <c r="C379">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>8</v>
+      </c>
+      <c r="B380">
+        <v>17</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>8</v>
+      </c>
+      <c r="B381">
+        <v>17</v>
+      </c>
+      <c r="C381">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>8</v>
+      </c>
+      <c r="B382">
+        <v>17</v>
+      </c>
+      <c r="C382">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>8</v>
+      </c>
+      <c r="B383">
+        <v>17</v>
+      </c>
+      <c r="C383">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>8</v>
+      </c>
+      <c r="B384">
+        <v>10</v>
+      </c>
+      <c r="C384">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>8</v>
+      </c>
+      <c r="B385">
+        <v>5</v>
+      </c>
+      <c r="C385">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>8</v>
+      </c>
+      <c r="B386">
+        <v>10</v>
+      </c>
+      <c r="C386">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>8</v>
+      </c>
+      <c r="B387">
+        <v>9</v>
+      </c>
+      <c r="C387">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>8</v>
+      </c>
+      <c r="B388">
+        <v>9</v>
+      </c>
+      <c r="C388">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>8</v>
+      </c>
+      <c r="B389">
+        <v>9</v>
+      </c>
+      <c r="C389">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>8</v>
+      </c>
+      <c r="B390">
+        <v>9</v>
+      </c>
+      <c r="C390">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>8</v>
+      </c>
+      <c r="B391">
+        <v>5</v>
+      </c>
+      <c r="C391">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>8</v>
+      </c>
+      <c r="B392">
+        <v>5</v>
+      </c>
+      <c r="C392">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>8</v>
+      </c>
+      <c r="B393">
+        <v>13</v>
+      </c>
+      <c r="C393">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>8</v>
+      </c>
+      <c r="B394">
+        <v>7</v>
+      </c>
+      <c r="C394">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>8</v>
+      </c>
+      <c r="B395">
+        <v>7</v>
+      </c>
+      <c r="C395">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>8</v>
+      </c>
+      <c r="B396">
+        <v>7</v>
+      </c>
+      <c r="C396">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>8</v>
+      </c>
+      <c r="B397">
+        <v>6</v>
+      </c>
+      <c r="C397">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>8</v>
+      </c>
+      <c r="B398">
+        <v>6</v>
+      </c>
+      <c r="C398">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>8</v>
+      </c>
+      <c r="B399">
+        <v>6</v>
+      </c>
+      <c r="C399">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>8</v>
+      </c>
+      <c r="B400">
+        <v>14</v>
+      </c>
+      <c r="C400">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>8</v>
+      </c>
+      <c r="B401">
+        <v>12</v>
+      </c>
+      <c r="C401">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>8</v>
+      </c>
+      <c r="B402">
+        <v>10</v>
+      </c>
+      <c r="C402">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>8</v>
+      </c>
+      <c r="B403">
+        <v>4</v>
+      </c>
+      <c r="C403">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>8</v>
+      </c>
+      <c r="B404">
+        <v>4</v>
+      </c>
+      <c r="C404">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>8</v>
+      </c>
+      <c r="B405">
+        <v>2</v>
+      </c>
+      <c r="C405">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>8</v>
+      </c>
+      <c r="B406">
+        <v>2</v>
+      </c>
+      <c r="C406">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>8</v>
+      </c>
+      <c r="B407">
+        <v>2</v>
+      </c>
+      <c r="C407">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>8</v>
+      </c>
+      <c r="B408">
+        <v>2</v>
+      </c>
+      <c r="C408">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>8</v>
+      </c>
+      <c r="B409">
+        <v>10</v>
+      </c>
+      <c r="C409">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>8</v>
+      </c>
+      <c r="B410">
+        <v>12</v>
+      </c>
+      <c r="C410">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>8</v>
+      </c>
+      <c r="B411">
+        <v>4</v>
+      </c>
+      <c r="C411">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>8</v>
+      </c>
+      <c r="B412">
+        <v>4</v>
+      </c>
+      <c r="C412">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>8</v>
+      </c>
+      <c r="B413">
+        <v>8</v>
+      </c>
+      <c r="C413">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>8</v>
+      </c>
+      <c r="B414">
+        <v>8</v>
+      </c>
+      <c r="C414">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>8</v>
+      </c>
+      <c r="B415">
+        <v>8</v>
+      </c>
+      <c r="C415">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>8</v>
+      </c>
+      <c r="B416">
+        <v>16</v>
+      </c>
+      <c r="C416">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>8</v>
+      </c>
+      <c r="B417">
+        <v>3</v>
+      </c>
+      <c r="C417">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>8</v>
+      </c>
+      <c r="B418">
+        <v>3</v>
+      </c>
+      <c r="C418">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>8</v>
+      </c>
+      <c r="B419">
+        <v>3</v>
+      </c>
+      <c r="C419">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>8</v>
+      </c>
+      <c r="B420">
+        <v>9</v>
+      </c>
+      <c r="C420">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>8</v>
+      </c>
+      <c r="B421">
+        <v>10</v>
+      </c>
+      <c r="C421">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>8</v>
+      </c>
+      <c r="B422">
+        <v>11</v>
+      </c>
+      <c r="C422">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>8</v>
+      </c>
+      <c r="B423">
+        <v>11</v>
+      </c>
+      <c r="C423">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>8</v>
+      </c>
+      <c r="B424">
+        <v>11</v>
+      </c>
+      <c r="C424">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>8</v>
+      </c>
+      <c r="B425">
+        <v>11</v>
+      </c>
+      <c r="C425">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>8</v>
+      </c>
+      <c r="B426">
+        <v>1</v>
+      </c>
+      <c r="C426">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>8</v>
+      </c>
+      <c r="B427">
+        <v>1</v>
+      </c>
+      <c r="C427">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>8</v>
+      </c>
+      <c r="B428">
+        <v>1</v>
+      </c>
+      <c r="C428">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>8</v>
+      </c>
+      <c r="B429">
+        <v>1</v>
+      </c>
+      <c r="C429">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>8</v>
+      </c>
+      <c r="B430">
+        <v>1</v>
+      </c>
+      <c r="C430">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>8</v>
+      </c>
+      <c r="B431">
+        <v>1</v>
+      </c>
+      <c r="C431">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>8</v>
+      </c>
+      <c r="B432">
+        <v>1</v>
+      </c>
+      <c r="C432">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>8</v>
+      </c>
+      <c r="B433">
+        <v>1</v>
+      </c>
+      <c r="C433">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>9</v>
+      </c>
+      <c r="B434">
+        <v>17</v>
+      </c>
+      <c r="C434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>9</v>
+      </c>
+      <c r="B435">
+        <v>17</v>
+      </c>
+      <c r="C435">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>9</v>
+      </c>
+      <c r="B436">
+        <v>17</v>
+      </c>
+      <c r="C436">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>9</v>
+      </c>
+      <c r="B437">
+        <v>17</v>
+      </c>
+      <c r="C437">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>9</v>
+      </c>
+      <c r="B438">
+        <v>10</v>
+      </c>
+      <c r="C438">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>9</v>
+      </c>
+      <c r="B439">
+        <v>9</v>
+      </c>
+      <c r="C439">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>9</v>
+      </c>
+      <c r="B440">
+        <v>10</v>
+      </c>
+      <c r="C440">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>9</v>
+      </c>
+      <c r="B441">
+        <v>5</v>
+      </c>
+      <c r="C441">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>9</v>
+      </c>
+      <c r="B442">
+        <v>5</v>
+      </c>
+      <c r="C442">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>9</v>
+      </c>
+      <c r="B443">
+        <v>5</v>
+      </c>
+      <c r="C443">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>9</v>
+      </c>
+      <c r="B444">
+        <v>4</v>
+      </c>
+      <c r="C444">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>9</v>
+      </c>
+      <c r="B445">
+        <v>4</v>
+      </c>
+      <c r="C445">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>9</v>
+      </c>
+      <c r="B446">
+        <v>2</v>
+      </c>
+      <c r="C446">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>9</v>
+      </c>
+      <c r="B447">
+        <v>2</v>
+      </c>
+      <c r="C447">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>9</v>
+      </c>
+      <c r="B448">
+        <v>2</v>
+      </c>
+      <c r="C448">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>9</v>
+      </c>
+      <c r="B449">
+        <v>2</v>
+      </c>
+      <c r="C449">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>9</v>
+      </c>
+      <c r="B450">
+        <v>10</v>
+      </c>
+      <c r="C450">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>9</v>
+      </c>
+      <c r="B451">
+        <v>12</v>
+      </c>
+      <c r="C451">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>9</v>
+      </c>
+      <c r="B452">
+        <v>10</v>
+      </c>
+      <c r="C452">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>9</v>
+      </c>
+      <c r="B453">
+        <v>10</v>
+      </c>
+      <c r="C453">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>9</v>
+      </c>
+      <c r="B454">
+        <v>14</v>
+      </c>
+      <c r="C454">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>9</v>
+      </c>
+      <c r="B455">
+        <v>1</v>
+      </c>
+      <c r="C455">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>9</v>
+      </c>
+      <c r="B456">
+        <v>1</v>
+      </c>
+      <c r="C456">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>9</v>
+      </c>
+      <c r="B457">
+        <v>1</v>
+      </c>
+      <c r="C457">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>9</v>
+      </c>
+      <c r="B458">
+        <v>1</v>
+      </c>
+      <c r="C458">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>9</v>
+      </c>
+      <c r="B459">
+        <v>1</v>
+      </c>
+      <c r="C459">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>9</v>
+      </c>
+      <c r="B460">
+        <v>1</v>
+      </c>
+      <c r="C460">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>9</v>
+      </c>
+      <c r="B461">
+        <v>1</v>
+      </c>
+      <c r="C461">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>9</v>
+      </c>
+      <c r="B462">
+        <v>1</v>
+      </c>
+      <c r="C462">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>9</v>
+      </c>
+      <c r="B463">
+        <v>13</v>
+      </c>
+      <c r="C463">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>9</v>
+      </c>
+      <c r="B464">
+        <v>11</v>
+      </c>
+      <c r="C464">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>9</v>
+      </c>
+      <c r="B465">
+        <v>11</v>
+      </c>
+      <c r="C465">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>9</v>
+      </c>
+      <c r="B466">
+        <v>11</v>
+      </c>
+      <c r="C466">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>9</v>
+      </c>
+      <c r="B467">
+        <v>11</v>
+      </c>
+      <c r="C467">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>9</v>
+      </c>
+      <c r="B468">
+        <v>3</v>
+      </c>
+      <c r="C468">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>9</v>
+      </c>
+      <c r="B469">
+        <v>3</v>
+      </c>
+      <c r="C469">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>9</v>
+      </c>
+      <c r="B470">
+        <v>3</v>
+      </c>
+      <c r="C470">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>9</v>
+      </c>
+      <c r="B471">
+        <v>15</v>
+      </c>
+      <c r="C471">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>9</v>
+      </c>
+      <c r="B472">
+        <v>12</v>
+      </c>
+      <c r="C472">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>9</v>
+      </c>
+      <c r="B473">
+        <v>9</v>
+      </c>
+      <c r="C473">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>9</v>
+      </c>
+      <c r="B474">
+        <v>9</v>
+      </c>
+      <c r="C474">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>9</v>
+      </c>
+      <c r="B475">
+        <v>9</v>
+      </c>
+      <c r="C475">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>9</v>
+      </c>
+      <c r="B476">
+        <v>9</v>
+      </c>
+      <c r="C476">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>9</v>
+      </c>
+      <c r="B477">
+        <v>4</v>
+      </c>
+      <c r="C477">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>9</v>
+      </c>
+      <c r="B478">
+        <v>4</v>
+      </c>
+      <c r="C478">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>9</v>
+      </c>
+      <c r="B479">
+        <v>6</v>
+      </c>
+      <c r="C479">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>9</v>
+      </c>
+      <c r="B480">
+        <v>6</v>
+      </c>
+      <c r="C480">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>9</v>
+      </c>
+      <c r="B481">
+        <v>6</v>
+      </c>
+      <c r="C481">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>9</v>
+      </c>
+      <c r="B482">
+        <v>7</v>
+      </c>
+      <c r="C482">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>9</v>
+      </c>
+      <c r="B483">
+        <v>7</v>
+      </c>
+      <c r="C483">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>9</v>
+      </c>
+      <c r="B484">
+        <v>7</v>
+      </c>
+      <c r="C484">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>9</v>
+      </c>
+      <c r="B485">
+        <v>8</v>
+      </c>
+      <c r="C485">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>9</v>
+      </c>
+      <c r="B486">
+        <v>8</v>
+      </c>
+      <c r="C486">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>9</v>
+      </c>
+      <c r="B487">
+        <v>8</v>
+      </c>
+      <c r="C487">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>10</v>
+      </c>
+      <c r="B488">
+        <v>17</v>
+      </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>10</v>
+      </c>
+      <c r="B489">
+        <v>17</v>
+      </c>
+      <c r="C489">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>10</v>
+      </c>
+      <c r="B490">
+        <v>17</v>
+      </c>
+      <c r="C490">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>10</v>
+      </c>
+      <c r="B491">
+        <v>17</v>
+      </c>
+      <c r="C491">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>10</v>
+      </c>
+      <c r="B492">
+        <v>10</v>
+      </c>
+      <c r="C492">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>10</v>
+      </c>
+      <c r="B493">
+        <v>10</v>
+      </c>
+      <c r="C493">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>10</v>
+      </c>
+      <c r="B494">
+        <v>5</v>
+      </c>
+      <c r="C494">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>10</v>
+      </c>
+      <c r="B495">
+        <v>9</v>
+      </c>
+      <c r="C495">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>10</v>
+      </c>
+      <c r="B496">
+        <v>10</v>
+      </c>
+      <c r="C496">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>10</v>
+      </c>
+      <c r="B497">
+        <v>13</v>
+      </c>
+      <c r="C497">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>10</v>
+      </c>
+      <c r="B498">
+        <v>10</v>
+      </c>
+      <c r="C498">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>10</v>
+      </c>
+      <c r="B499">
+        <v>10</v>
+      </c>
+      <c r="C499">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>10</v>
+      </c>
+      <c r="B500">
+        <v>12</v>
+      </c>
+      <c r="C500">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>10</v>
+      </c>
+      <c r="B501">
+        <v>12</v>
+      </c>
+      <c r="C501">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>10</v>
+      </c>
+      <c r="B502">
+        <v>4</v>
+      </c>
+      <c r="C502">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>10</v>
+      </c>
+      <c r="B503">
+        <v>4</v>
+      </c>
+      <c r="C503">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>10</v>
+      </c>
+      <c r="B504">
+        <v>2</v>
+      </c>
+      <c r="C504">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>10</v>
+      </c>
+      <c r="B505">
+        <v>2</v>
+      </c>
+      <c r="C505">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>10</v>
+      </c>
+      <c r="B506">
+        <v>2</v>
+      </c>
+      <c r="C506">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>10</v>
+      </c>
+      <c r="B507">
+        <v>2</v>
+      </c>
+      <c r="C507">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>10</v>
+      </c>
+      <c r="B508">
+        <v>14</v>
+      </c>
+      <c r="C508">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>10</v>
+      </c>
+      <c r="B509">
+        <v>9</v>
+      </c>
+      <c r="C509">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>10</v>
+      </c>
+      <c r="B510">
+        <v>9</v>
+      </c>
+      <c r="C510">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>10</v>
+      </c>
+      <c r="B511">
+        <v>9</v>
+      </c>
+      <c r="C511">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>10</v>
+      </c>
+      <c r="B512">
+        <v>9</v>
+      </c>
+      <c r="C512">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>10</v>
+      </c>
+      <c r="B513">
+        <v>5</v>
+      </c>
+      <c r="C513">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>10</v>
+      </c>
+      <c r="B514">
+        <v>5</v>
+      </c>
+      <c r="C514">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>10</v>
+      </c>
+      <c r="B515">
+        <v>3</v>
+      </c>
+      <c r="C515">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>10</v>
+      </c>
+      <c r="B516">
+        <v>3</v>
+      </c>
+      <c r="C516">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>10</v>
+      </c>
+      <c r="B517">
+        <v>3</v>
+      </c>
+      <c r="C517">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>10</v>
+      </c>
+      <c r="B518">
+        <v>6</v>
+      </c>
+      <c r="C518">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>10</v>
+      </c>
+      <c r="B519">
+        <v>6</v>
+      </c>
+      <c r="C519">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>10</v>
+      </c>
+      <c r="B520">
+        <v>6</v>
+      </c>
+      <c r="C520">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521">
+        <v>10</v>
+      </c>
+      <c r="B521">
+        <v>7</v>
+      </c>
+      <c r="C521">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>10</v>
+      </c>
+      <c r="B522">
+        <v>7</v>
+      </c>
+      <c r="C522">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>10</v>
+      </c>
+      <c r="B523">
+        <v>7</v>
+      </c>
+      <c r="C523">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>10</v>
+      </c>
+      <c r="B524">
+        <v>16</v>
+      </c>
+      <c r="C524">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>10</v>
+      </c>
+      <c r="B525">
+        <v>4</v>
+      </c>
+      <c r="C525">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>10</v>
+      </c>
+      <c r="B526">
+        <v>4</v>
+      </c>
+      <c r="C526">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>10</v>
+      </c>
+      <c r="B527">
+        <v>8</v>
+      </c>
+      <c r="C527">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528">
+        <v>10</v>
+      </c>
+      <c r="B528">
+        <v>8</v>
+      </c>
+      <c r="C528">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>10</v>
+      </c>
+      <c r="B529">
+        <v>8</v>
+      </c>
+      <c r="C529">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530">
+        <v>10</v>
+      </c>
+      <c r="B530">
+        <v>11</v>
+      </c>
+      <c r="C530">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>10</v>
+      </c>
+      <c r="B531">
+        <v>11</v>
+      </c>
+      <c r="C531">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>10</v>
+      </c>
+      <c r="B532">
+        <v>11</v>
+      </c>
+      <c r="C532">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>10</v>
+      </c>
+      <c r="B533">
+        <v>11</v>
+      </c>
+      <c r="C533">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>10</v>
+      </c>
+      <c r="B534">
+        <v>1</v>
+      </c>
+      <c r="C534">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535">
+        <v>10</v>
+      </c>
+      <c r="B535">
+        <v>1</v>
+      </c>
+      <c r="C535">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>10</v>
+      </c>
+      <c r="B536">
+        <v>1</v>
+      </c>
+      <c r="C536">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>10</v>
+      </c>
+      <c r="B537">
+        <v>1</v>
+      </c>
+      <c r="C537">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>10</v>
+      </c>
+      <c r="B538">
+        <v>1</v>
+      </c>
+      <c r="C538">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>10</v>
+      </c>
+      <c r="B539">
+        <v>1</v>
+      </c>
+      <c r="C539">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>10</v>
+      </c>
+      <c r="B540">
+        <v>1</v>
+      </c>
+      <c r="C540">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541">
+        <v>10</v>
+      </c>
+      <c r="B541">
+        <v>1</v>
+      </c>
+      <c r="C541">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542">
+        <v>11</v>
+      </c>
+      <c r="B542">
+        <v>17</v>
+      </c>
+      <c r="C542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543">
+        <v>11</v>
+      </c>
+      <c r="B543">
+        <v>17</v>
+      </c>
+      <c r="C543">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544">
+        <v>11</v>
+      </c>
+      <c r="B544">
+        <v>17</v>
+      </c>
+      <c r="C544">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545">
+        <v>11</v>
+      </c>
+      <c r="B545">
+        <v>17</v>
+      </c>
+      <c r="C545">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546">
+        <v>11</v>
+      </c>
+      <c r="B546">
+        <v>9</v>
+      </c>
+      <c r="C546">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547">
+        <v>11</v>
+      </c>
+      <c r="B547">
+        <v>10</v>
+      </c>
+      <c r="C547">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548">
+        <v>11</v>
+      </c>
+      <c r="B548">
+        <v>5</v>
+      </c>
+      <c r="C548">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549">
+        <v>11</v>
+      </c>
+      <c r="B549">
+        <v>10</v>
+      </c>
+      <c r="C549">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550">
+        <v>11</v>
+      </c>
+      <c r="B550">
+        <v>4</v>
+      </c>
+      <c r="C550">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551">
+        <v>11</v>
+      </c>
+      <c r="B551">
+        <v>4</v>
+      </c>
+      <c r="C551">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552">
+        <v>11</v>
+      </c>
+      <c r="B552">
+        <v>10</v>
+      </c>
+      <c r="C552">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553">
+        <v>11</v>
+      </c>
+      <c r="B553">
+        <v>13</v>
+      </c>
+      <c r="C553">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554">
+        <v>11</v>
+      </c>
+      <c r="B554">
+        <v>1</v>
+      </c>
+      <c r="C554">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555">
+        <v>11</v>
+      </c>
+      <c r="B555">
+        <v>1</v>
+      </c>
+      <c r="C555">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556">
+        <v>11</v>
+      </c>
+      <c r="B556">
+        <v>1</v>
+      </c>
+      <c r="C556">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557">
+        <v>11</v>
+      </c>
+      <c r="B557">
+        <v>1</v>
+      </c>
+      <c r="C557">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558">
+        <v>11</v>
+      </c>
+      <c r="B558">
+        <v>1</v>
+      </c>
+      <c r="C558">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559">
+        <v>11</v>
+      </c>
+      <c r="B559">
+        <v>1</v>
+      </c>
+      <c r="C559">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560">
+        <v>11</v>
+      </c>
+      <c r="B560">
+        <v>1</v>
+      </c>
+      <c r="C560">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561">
+        <v>11</v>
+      </c>
+      <c r="B561">
+        <v>1</v>
+      </c>
+      <c r="C561">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562">
+        <v>11</v>
+      </c>
+      <c r="B562">
+        <v>14</v>
+      </c>
+      <c r="C562">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563">
+        <v>11</v>
+      </c>
+      <c r="B563">
+        <v>5</v>
+      </c>
+      <c r="C563">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564">
+        <v>11</v>
+      </c>
+      <c r="B564">
+        <v>5</v>
+      </c>
+      <c r="C564">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565">
+        <v>11</v>
+      </c>
+      <c r="B565">
+        <v>10</v>
+      </c>
+      <c r="C565">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566">
+        <v>11</v>
+      </c>
+      <c r="B566">
+        <v>12</v>
+      </c>
+      <c r="C566">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567">
+        <v>11</v>
+      </c>
+      <c r="B567">
+        <v>8</v>
+      </c>
+      <c r="C567">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568">
+        <v>11</v>
+      </c>
+      <c r="B568">
+        <v>8</v>
+      </c>
+      <c r="C568">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569">
+        <v>11</v>
+      </c>
+      <c r="B569">
+        <v>8</v>
+      </c>
+      <c r="C569">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570">
+        <v>11</v>
+      </c>
+      <c r="B570">
+        <v>9</v>
+      </c>
+      <c r="C570">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571">
+        <v>11</v>
+      </c>
+      <c r="B571">
+        <v>9</v>
+      </c>
+      <c r="C571">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572">
+        <v>11</v>
+      </c>
+      <c r="B572">
+        <v>9</v>
+      </c>
+      <c r="C572">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573">
+        <v>11</v>
+      </c>
+      <c r="B573">
+        <v>9</v>
+      </c>
+      <c r="C573">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574">
+        <v>11</v>
+      </c>
+      <c r="B574">
+        <v>10</v>
+      </c>
+      <c r="C574">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575">
+        <v>11</v>
+      </c>
+      <c r="B575">
+        <v>2</v>
+      </c>
+      <c r="C575">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576">
+        <v>11</v>
+      </c>
+      <c r="B576">
+        <v>2</v>
+      </c>
+      <c r="C576">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577">
+        <v>11</v>
+      </c>
+      <c r="B577">
+        <v>2</v>
+      </c>
+      <c r="C577">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578">
+        <v>11</v>
+      </c>
+      <c r="B578">
+        <v>2</v>
+      </c>
+      <c r="C578">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579">
+        <v>11</v>
+      </c>
+      <c r="B579">
+        <v>15</v>
+      </c>
+      <c r="C579">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580">
+        <v>11</v>
+      </c>
+      <c r="B580">
+        <v>7</v>
+      </c>
+      <c r="C580">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581">
+        <v>11</v>
+      </c>
+      <c r="B581">
+        <v>7</v>
+      </c>
+      <c r="C581">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582">
+        <v>11</v>
+      </c>
+      <c r="B582">
+        <v>7</v>
+      </c>
+      <c r="C582">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583">
+        <v>11</v>
+      </c>
+      <c r="B583">
+        <v>12</v>
+      </c>
+      <c r="C583">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584">
+        <v>11</v>
+      </c>
+      <c r="B584">
+        <v>6</v>
+      </c>
+      <c r="C584">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585">
+        <v>11</v>
+      </c>
+      <c r="B585">
+        <v>6</v>
+      </c>
+      <c r="C585">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586">
+        <v>11</v>
+      </c>
+      <c r="B586">
+        <v>6</v>
+      </c>
+      <c r="C586">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587">
+        <v>11</v>
+      </c>
+      <c r="B587">
+        <v>4</v>
+      </c>
+      <c r="C587">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588">
+        <v>11</v>
+      </c>
+      <c r="B588">
+        <v>4</v>
+      </c>
+      <c r="C588">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589">
+        <v>11</v>
+      </c>
+      <c r="B589">
+        <v>11</v>
+      </c>
+      <c r="C589">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590">
+        <v>11</v>
+      </c>
+      <c r="B590">
+        <v>11</v>
+      </c>
+      <c r="C590">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591">
+        <v>11</v>
+      </c>
+      <c r="B591">
+        <v>11</v>
+      </c>
+      <c r="C591">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592">
+        <v>11</v>
+      </c>
+      <c r="B592">
+        <v>11</v>
+      </c>
+      <c r="C592">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593">
+        <v>11</v>
+      </c>
+      <c r="B593">
+        <v>3</v>
+      </c>
+      <c r="C593">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594">
+        <v>11</v>
+      </c>
+      <c r="B594">
+        <v>3</v>
+      </c>
+      <c r="C594">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595">
+        <v>11</v>
+      </c>
+      <c r="B595">
+        <v>3</v>
+      </c>
+      <c r="C595">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C595">
+    <sortCondition ref="A2:A595"/>
+    <sortCondition ref="C2:C595"/>
+  </sortState>
+  <conditionalFormatting sqref="A2:C595">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CD0FBA-0E43-4F85-A8EC-5FC0915E6CF0}">
+  <dimension ref="A1:BC16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+    <sheetView workbookViewId="2"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2">
+        <v>43801</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43808</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43815</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43822</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43829</v>
+      </c>
+      <c r="G2" s="2">
+        <v>43836</v>
+      </c>
+      <c r="H2" s="2">
+        <v>43843</v>
+      </c>
+      <c r="I2" s="2">
+        <v>43850</v>
+      </c>
+      <c r="J2" s="2">
+        <v>43857</v>
+      </c>
+      <c r="K2" s="2">
+        <v>43864</v>
+      </c>
+      <c r="L2" s="2">
+        <v>43871</v>
+      </c>
+      <c r="M2" s="2">
+        <v>43878</v>
+      </c>
+      <c r="N2" s="2">
+        <v>43885</v>
+      </c>
+      <c r="O2" s="2">
+        <v>43892</v>
+      </c>
+      <c r="P2" s="2">
+        <v>43899</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>43906</v>
+      </c>
+      <c r="R2" s="2">
+        <v>43913</v>
+      </c>
+      <c r="S2" s="2">
+        <v>43920</v>
+      </c>
+      <c r="T2" s="2">
+        <v>43927</v>
+      </c>
+      <c r="U2" s="2">
+        <v>43934</v>
+      </c>
+      <c r="V2" s="2">
+        <v>43941</v>
+      </c>
+      <c r="W2" s="2">
+        <v>43948</v>
+      </c>
+      <c r="X2" s="2">
+        <v>43955</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>43962</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>43969</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>43976</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>43983</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>43990</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>43997</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>44004</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>44011</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>44018</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>44025</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>44032</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>44039</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>44046</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>44053</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>44060</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>44067</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>44074</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>44081</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>44088</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>44095</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>44102</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>44109</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>44116</v>
+      </c>
+      <c r="AV2" s="2">
+        <v>44123</v>
+      </c>
+      <c r="AW2" s="2">
+        <v>44130</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>44137</v>
+      </c>
+      <c r="AY2" s="2">
+        <v>44144</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>44151</v>
+      </c>
+      <c r="BA2" s="2">
+        <v>44158</v>
+      </c>
+      <c r="BB2" s="2">
+        <v>44165</v>
+      </c>
+      <c r="BC2" s="2">
+        <v>44172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AZ3" s="17"/>
+      <c r="BA3" s="17"/>
+      <c r="BB3" s="17"/>
+      <c r="BC3" s="17"/>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ4" s="17"/>
+      <c r="BA4" s="17"/>
+      <c r="BB4" s="17"/>
+      <c r="BC4" s="17"/>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ5" s="17"/>
+      <c r="BA5" s="17"/>
+      <c r="BB5" s="17"/>
+      <c r="BC5" s="17"/>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AX6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ6" s="17"/>
+      <c r="BA6" s="17"/>
+      <c r="BB6" s="17"/>
+      <c r="BC6" s="17"/>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AX7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ7" s="17"/>
+      <c r="BA7" s="17"/>
+      <c r="BB7" s="17"/>
+      <c r="BC7" s="17"/>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AX8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ8" s="17"/>
+      <c r="BA8" s="17"/>
+      <c r="BB8" s="17"/>
+      <c r="BC8" s="17"/>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="X9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC9" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="S10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="T10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="U10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC10" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="V11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="X11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF11" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG11" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH11" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI11" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC11" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC12" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="V13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AX13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC13" s="15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.25">
